--- a/contents/moundofmusic/241010_tutor_compose/template/config.xlsx
+++ b/contents/moundofmusic/241010_tutor_compose/template/config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\AppData\LocalLow\ElifGames\MoundofMusic\UGC\Music\TwinkleTwinkleLittleStar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\self\git\elifgames\contents\moundofmusic\241010_tutor_compose\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D689C3-7005-41AD-9888-AFEB43D0D547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D002C1-977B-4D3A-89A9-2EAC9BEC1ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="note.csv" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="513">
   <si>
     <t>la</t>
   </si>
@@ -60,10 +60,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>调性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>G</t>
   </si>
   <si>
@@ -140,9 +136,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>// 钢琴</t>
-  </si>
-  <si>
     <t>6,,,,</t>
   </si>
   <si>
@@ -1486,18 +1479,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>pitch</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>游戏音域外</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>调性偏移</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>八度偏移</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1592,6 +1577,26 @@
   </si>
   <si>
     <t>b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调式偏移</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应钢琴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调式key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>音高key</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2179,7 +2184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC136916-A0DD-453D-9C84-73FD14B5E8DF}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -2192,13 +2197,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2570,46 +2575,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3006FC-D3C0-4B50-9088-AB75549B9430}">
-  <dimension ref="A1:O248"/>
+  <dimension ref="A1:R248"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O3" sqref="O3:O32"/>
+      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.90625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>508</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>486</v>
+        <v>509</v>
       </c>
       <c r="B2">
         <f>VLOOKUP(B1,data!A:B,2,)-1</f>
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
@@ -2618,30 +2623,39 @@
         <v>9</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="R2" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2655,23 +2669,26 @@
         <v>1</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="L3">
-        <f>INDEX(data!D:D,MATCH(K3,data!J:J,))</f>
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <f>INDEX(data!D:D,MATCH(K3,data!J:J,) + N3*12)</f>
         <v>51</v>
       </c>
-      <c r="M3" t="b">
-        <f>IFERROR(MATCH(L3,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
-        <v>1</v>
-      </c>
-      <c r="O3" s="8">
+      <c r="P3" t="b">
+        <f>IFERROR(MATCH(O3,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <v>1</v>
+      </c>
+      <c r="R3" s="8">
         <v>8.2989999999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="H4">
         <f>INDEX(data!D:D,MATCH(D4,data!G:G,)+$B$2+G4*12)</f>
@@ -2682,23 +2699,23 @@
         <v>1</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="L4">
+        <v>495</v>
+      </c>
+      <c r="O4">
         <f>INDEX(data!D:D,MATCH(K4,data!J:J,))</f>
         <v>51</v>
       </c>
-      <c r="M4" t="b">
-        <f>IFERROR(MATCH(L4,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
-        <v>1</v>
-      </c>
-      <c r="O4" s="8">
+      <c r="P4" t="b">
+        <f>IFERROR(MATCH(O4,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <v>1</v>
+      </c>
+      <c r="R4" s="8">
         <v>8.8079999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="H5">
         <f>INDEX(data!D:D,MATCH(D5,data!G:G,)+$B$2+G5*12)</f>
@@ -2709,23 +2726,23 @@
         <v>1</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="L5">
+        <v>497</v>
+      </c>
+      <c r="O5">
         <f>INDEX(data!D:D,MATCH(K5,data!J:J,))</f>
         <v>55</v>
       </c>
-      <c r="M5" t="b">
-        <f>IFERROR(MATCH(L5,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
-        <v>1</v>
-      </c>
-      <c r="O5" s="8">
+      <c r="P5" t="b">
+        <f>IFERROR(MATCH(O5,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <v>1</v>
+      </c>
+      <c r="R5" s="8">
         <v>9.3079999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="H6">
         <f>INDEX(data!D:D,MATCH(D6,data!G:G,)+$B$2+G6*12)</f>
@@ -2736,23 +2753,23 @@
         <v>1</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="L6">
+        <v>497</v>
+      </c>
+      <c r="O6">
         <f>INDEX(data!D:D,MATCH(K6,data!J:J,))</f>
         <v>55</v>
       </c>
-      <c r="M6" t="b">
-        <f>IFERROR(MATCH(L6,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
-        <v>1</v>
-      </c>
-      <c r="O6" s="8">
+      <c r="P6" t="b">
+        <f>IFERROR(MATCH(O6,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <v>1</v>
+      </c>
+      <c r="R6" s="8">
         <v>9.8079999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D7" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="H7">
         <f>INDEX(data!D:D,MATCH(D7,data!G:G,)+$B$2+G7*12)</f>
@@ -2763,23 +2780,23 @@
         <v>1</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="L7">
+        <v>498</v>
+      </c>
+      <c r="O7">
         <f>INDEX(data!D:D,MATCH(K7,data!J:J,))</f>
         <v>56</v>
       </c>
-      <c r="M7" t="b">
-        <f>IFERROR(MATCH(L7,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
-        <v>1</v>
-      </c>
-      <c r="O7" s="8">
+      <c r="P7" t="b">
+        <f>IFERROR(MATCH(O7,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <v>1</v>
+      </c>
+      <c r="R7" s="8">
         <v>10.308</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="H8">
         <f>INDEX(data!D:D,MATCH(D8,data!G:G,)+$B$2+G8*12)</f>
@@ -2790,23 +2807,23 @@
         <v>1</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="L8">
+        <v>502</v>
+      </c>
+      <c r="O8">
         <f>INDEX(data!D:D,MATCH(K8,data!J:J,))</f>
         <v>54</v>
       </c>
-      <c r="M8" t="b">
-        <f>IFERROR(MATCH(L8,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
-        <v>1</v>
-      </c>
-      <c r="O8" s="8">
+      <c r="P8" t="b">
+        <f>IFERROR(MATCH(O8,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <v>1</v>
+      </c>
+      <c r="R8" s="8">
         <v>10.808</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="H9">
         <f>INDEX(data!D:D,MATCH(D9,data!G:G,)+$B$2+G9*12)</f>
@@ -2817,23 +2834,23 @@
         <v>1</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="L9">
+        <v>497</v>
+      </c>
+      <c r="O9">
         <f>INDEX(data!D:D,MATCH(K9,data!J:J,))</f>
         <v>55</v>
       </c>
-      <c r="M9" t="b">
-        <f>IFERROR(MATCH(L9,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
-        <v>1</v>
-      </c>
-      <c r="O9" s="8">
+      <c r="P9" t="b">
+        <f>IFERROR(MATCH(O9,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <v>1</v>
+      </c>
+      <c r="R9" s="8">
         <v>11.266</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="H10">
         <f>INDEX(data!D:D,MATCH(D10,data!G:G,)+$B$2+G10*12)</f>
@@ -2844,23 +2861,23 @@
         <v>1</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="L10">
+        <v>503</v>
+      </c>
+      <c r="O10">
         <f>INDEX(data!D:D,MATCH(K10,data!J:J,))</f>
         <v>53</v>
       </c>
-      <c r="M10" t="b">
-        <f>IFERROR(MATCH(L10,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
-        <v>1</v>
-      </c>
-      <c r="O10" s="8">
+      <c r="P10" t="b">
+        <f>IFERROR(MATCH(O10,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <v>1</v>
+      </c>
+      <c r="R10" s="8">
         <v>11.766</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D11" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -2874,23 +2891,26 @@
         <v>1</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="O11">
         <f>INDEX(data!D:D,MATCH(K11,data!J:J,))</f>
         <v>54</v>
       </c>
-      <c r="M11" t="b">
-        <f>IFERROR(MATCH(L11,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
-        <v>1</v>
-      </c>
-      <c r="O11" s="8">
+      <c r="P11" t="b">
+        <f>IFERROR(MATCH(O11,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <v>1</v>
+      </c>
+      <c r="R11" s="8">
         <v>12.202999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D12" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="H12">
         <f>INDEX(data!D:D,MATCH(D12,data!G:G,)+$B$2+G12*12)</f>
@@ -2901,23 +2921,23 @@
         <v>1</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="L12">
+        <v>502</v>
+      </c>
+      <c r="O12">
         <f>INDEX(data!D:D,MATCH(K12,data!J:J,))</f>
         <v>54</v>
       </c>
-      <c r="M12" t="b">
-        <f>IFERROR(MATCH(L12,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
-        <v>1</v>
-      </c>
-      <c r="O12" s="8">
+      <c r="P12" t="b">
+        <f>IFERROR(MATCH(O12,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <v>1</v>
+      </c>
+      <c r="R12" s="8">
         <v>12.702999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D13" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="H13">
         <f>INDEX(data!D:D,MATCH(D13,data!G:G,)+$B$2+G13*12)</f>
@@ -2928,23 +2948,23 @@
         <v>1</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="L13">
+        <v>503</v>
+      </c>
+      <c r="O13">
         <f>INDEX(data!D:D,MATCH(K13,data!J:J,))</f>
         <v>53</v>
       </c>
-      <c r="M13" t="b">
-        <f>IFERROR(MATCH(L13,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
-        <v>1</v>
-      </c>
-      <c r="O13" s="8">
+      <c r="P13" t="b">
+        <f>IFERROR(MATCH(O13,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <v>1</v>
+      </c>
+      <c r="R13" s="8">
         <v>13.162000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="H14">
         <f>INDEX(data!D:D,MATCH(D14,data!G:G,)+$B$2+G14*12)</f>
@@ -2955,23 +2975,23 @@
         <v>1</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="L14">
+        <v>503</v>
+      </c>
+      <c r="O14">
         <f>INDEX(data!D:D,MATCH(K14,data!J:J,))</f>
         <v>53</v>
       </c>
-      <c r="M14" t="b">
-        <f>IFERROR(MATCH(L14,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
-        <v>1</v>
-      </c>
-      <c r="O14" s="8">
+      <c r="P14" t="b">
+        <f>IFERROR(MATCH(O14,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <v>1</v>
+      </c>
+      <c r="R14" s="8">
         <v>13.662000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="H15">
         <f>INDEX(data!D:D,MATCH(D15,data!G:G,)+$B$2+G15*12)</f>
@@ -2982,23 +3002,23 @@
         <v>1</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="L15">
+        <v>505</v>
+      </c>
+      <c r="O15">
         <f>INDEX(data!D:D,MATCH(K15,data!J:J,))</f>
         <v>52</v>
       </c>
-      <c r="M15" t="b">
-        <f>IFERROR(MATCH(L15,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
-        <v>1</v>
-      </c>
-      <c r="O15" s="8">
+      <c r="P15" t="b">
+        <f>IFERROR(MATCH(O15,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <v>1</v>
+      </c>
+      <c r="R15" s="8">
         <v>14.12</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D16" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="H16">
         <f>INDEX(data!D:D,MATCH(D16,data!G:G,)+$B$2+G16*12)</f>
@@ -3009,23 +3029,23 @@
         <v>1</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="L16">
+        <v>505</v>
+      </c>
+      <c r="O16">
         <f>INDEX(data!D:D,MATCH(K16,data!J:J,))</f>
         <v>52</v>
       </c>
-      <c r="M16" t="b">
-        <f>IFERROR(MATCH(L16,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
-        <v>1</v>
-      </c>
-      <c r="O16" s="8">
+      <c r="P16" t="b">
+        <f>IFERROR(MATCH(O16,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <v>1</v>
+      </c>
+      <c r="R16" s="8">
         <v>14.62</v>
       </c>
     </row>
-    <row r="17" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D17" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="H17">
         <f>INDEX(data!D:D,MATCH(D17,data!G:G,)+$B$2+G17*12)</f>
@@ -3036,826 +3056,1004 @@
         <v>1</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="L17">
+        <v>495</v>
+      </c>
+      <c r="O17">
         <f>INDEX(data!D:D,MATCH(K17,data!J:J,))</f>
         <v>51</v>
       </c>
-      <c r="M17" t="b">
-        <f>IFERROR(MATCH(L17,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
-        <v>1</v>
-      </c>
-      <c r="O17" s="8">
+      <c r="P17" t="b">
+        <f>IFERROR(MATCH(O17,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <v>1</v>
+      </c>
+      <c r="R17" s="8">
         <v>15.12</v>
       </c>
     </row>
-    <row r="18" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="E18">
         <v>3</v>
       </c>
+      <c r="G18">
+        <v>-1</v>
+      </c>
       <c r="H18">
         <f>INDEX(data!D:D,MATCH(D18,data!G:G,)+$B$2+G18*12)</f>
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I18" t="b">
         <f>IFERROR(MATCH(H18,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="O18">
         <f>INDEX(data!D:D,MATCH(K18,data!J:J,))</f>
         <v>51</v>
       </c>
-      <c r="M18" t="b">
-        <f>IFERROR(MATCH(L18,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
-        <v>1</v>
-      </c>
-      <c r="O18" s="8">
+      <c r="P18" t="b">
+        <f>IFERROR(MATCH(O18,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <v>1</v>
+      </c>
+      <c r="R18" s="8">
         <v>16.125</v>
       </c>
     </row>
-    <row r="19" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D19" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
+      </c>
+      <c r="G19">
+        <v>-1</v>
       </c>
       <c r="H19">
         <f>INDEX(data!D:D,MATCH(D19,data!G:G,)+$B$2+G19*12)</f>
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I19" t="b">
         <f>IFERROR(MATCH(H19,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="L19">
+        <v>495</v>
+      </c>
+      <c r="O19">
         <f>INDEX(data!D:D,MATCH(K19,data!J:J,))</f>
         <v>51</v>
       </c>
-      <c r="M19" t="b">
-        <f>IFERROR(MATCH(L19,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
-        <v>1</v>
-      </c>
-      <c r="O19" s="8">
+      <c r="P19" t="b">
+        <f>IFERROR(MATCH(O19,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <v>1</v>
+      </c>
+      <c r="R19" s="8">
         <v>16.582999999999998</v>
       </c>
     </row>
-    <row r="20" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D20" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
+      </c>
+      <c r="G20">
+        <v>-1</v>
       </c>
       <c r="H20">
         <f>INDEX(data!D:D,MATCH(D20,data!G:G,)+$B$2+G20*12)</f>
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I20" t="b">
         <f>IFERROR(MATCH(H20,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="L20">
+        <v>497</v>
+      </c>
+      <c r="O20">
         <f>INDEX(data!D:D,MATCH(K20,data!J:J,))</f>
         <v>55</v>
       </c>
-      <c r="M20" t="b">
-        <f>IFERROR(MATCH(L20,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
-        <v>1</v>
-      </c>
-      <c r="O20" s="8">
+      <c r="P20" t="b">
+        <f>IFERROR(MATCH(O20,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <v>1</v>
+      </c>
+      <c r="R20" s="8">
         <v>17.042000000000002</v>
       </c>
     </row>
-    <row r="21" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D21" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
+      </c>
+      <c r="G21">
+        <v>-1</v>
       </c>
       <c r="H21">
         <f>INDEX(data!D:D,MATCH(D21,data!G:G,)+$B$2+G21*12)</f>
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I21" t="b">
         <f>IFERROR(MATCH(H21,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="L21">
+        <v>497</v>
+      </c>
+      <c r="O21">
         <f>INDEX(data!D:D,MATCH(K21,data!J:J,))</f>
         <v>55</v>
       </c>
-      <c r="M21" t="b">
-        <f>IFERROR(MATCH(L21,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
-        <v>1</v>
-      </c>
-      <c r="O21" s="8">
+      <c r="P21" t="b">
+        <f>IFERROR(MATCH(O21,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <v>1</v>
+      </c>
+      <c r="R21" s="8">
         <v>17.582999999999998</v>
       </c>
     </row>
-    <row r="22" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D22" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
+      </c>
+      <c r="G22">
+        <v>-1</v>
       </c>
       <c r="H22">
         <f>INDEX(data!D:D,MATCH(D22,data!G:G,)+$B$2+G22*12)</f>
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="I22" t="b">
         <f>IFERROR(MATCH(H22,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="L22">
+        <v>498</v>
+      </c>
+      <c r="O22">
         <f>INDEX(data!D:D,MATCH(K22,data!J:J,))</f>
         <v>56</v>
       </c>
-      <c r="M22" t="b">
-        <f>IFERROR(MATCH(L22,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
-        <v>1</v>
-      </c>
-      <c r="O22" s="8">
+      <c r="P22" t="b">
+        <f>IFERROR(MATCH(O22,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <v>1</v>
+      </c>
+      <c r="R22" s="8">
         <v>18.082999999999998</v>
       </c>
     </row>
-    <row r="23" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D23" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
+      </c>
+      <c r="G23">
+        <v>-1</v>
       </c>
       <c r="H23">
         <f>INDEX(data!D:D,MATCH(D23,data!G:G,)+$B$2+G23*12)</f>
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I23" t="b">
         <f>IFERROR(MATCH(H23,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="L23">
+        <v>502</v>
+      </c>
+      <c r="O23">
         <f>INDEX(data!D:D,MATCH(K23,data!J:J,))</f>
         <v>54</v>
       </c>
-      <c r="M23" t="b">
-        <f>IFERROR(MATCH(L23,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
-        <v>1</v>
-      </c>
-      <c r="O23" s="8">
+      <c r="P23" t="b">
+        <f>IFERROR(MATCH(O23,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <v>1</v>
+      </c>
+      <c r="R23" s="8">
         <v>18.542000000000002</v>
       </c>
     </row>
-    <row r="24" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D24" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
+      </c>
+      <c r="G24">
+        <v>-1</v>
       </c>
       <c r="H24">
         <f>INDEX(data!D:D,MATCH(D24,data!G:G,)+$B$2+G24*12)</f>
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I24" t="b">
         <f>IFERROR(MATCH(H24,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="L24">
+        <v>497</v>
+      </c>
+      <c r="O24">
         <f>INDEX(data!D:D,MATCH(K24,data!J:J,))</f>
         <v>55</v>
       </c>
-      <c r="M24" t="b">
-        <f>IFERROR(MATCH(L24,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
-        <v>1</v>
-      </c>
-      <c r="O24" s="8">
+      <c r="P24" t="b">
+        <f>IFERROR(MATCH(O24,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <v>1</v>
+      </c>
+      <c r="R24" s="8">
         <v>19.042000000000002</v>
       </c>
     </row>
-    <row r="25" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D25" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
+      </c>
+      <c r="G25">
+        <v>-1</v>
       </c>
       <c r="H25">
         <f>INDEX(data!D:D,MATCH(D25,data!G:G,)+$B$2+G25*12)</f>
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I25" t="b">
         <f>IFERROR(MATCH(H25,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="L25">
+        <v>503</v>
+      </c>
+      <c r="O25">
         <f>INDEX(data!D:D,MATCH(K25,data!J:J,))</f>
         <v>53</v>
       </c>
-      <c r="M25" t="b">
-        <f>IFERROR(MATCH(L25,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
-        <v>1</v>
-      </c>
-      <c r="O25" s="8">
+      <c r="P25" t="b">
+        <f>IFERROR(MATCH(O25,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <v>1</v>
+      </c>
+      <c r="R25" s="8">
         <v>19.542000000000002</v>
       </c>
     </row>
-    <row r="26" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D26" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="E26">
         <v>4</v>
       </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
       <c r="H26">
         <f>INDEX(data!D:D,MATCH(D26,data!G:G,)+$B$2+G26*12)</f>
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="I26" t="b">
         <f>IFERROR(MATCH(H26,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="L26">
+        <v>4</v>
+      </c>
+      <c r="O26">
         <f>INDEX(data!D:D,MATCH(K26,data!J:J,))</f>
         <v>54</v>
       </c>
-      <c r="M26" t="b">
-        <f>IFERROR(MATCH(L26,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
-        <v>1</v>
-      </c>
-      <c r="O26" s="8">
+      <c r="P26" t="b">
+        <f>IFERROR(MATCH(O26,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <v>1</v>
+      </c>
+      <c r="R26" s="8">
         <v>19.981000000000002</v>
       </c>
     </row>
-    <row r="27" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D27" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
       </c>
       <c r="H27">
         <f>INDEX(data!D:D,MATCH(D27,data!G:G,)+$B$2+G27*12)</f>
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I27" t="b">
         <f>IFERROR(MATCH(H27,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="L27">
+        <v>505</v>
+      </c>
+      <c r="O27">
         <f>INDEX(data!D:D,MATCH(K27,data!J:J,))</f>
         <v>52</v>
       </c>
-      <c r="M27" t="b">
-        <f>IFERROR(MATCH(L27,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
-        <v>1</v>
-      </c>
-      <c r="O27" s="8">
+      <c r="P27" t="b">
+        <f>IFERROR(MATCH(O27,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <v>1</v>
+      </c>
+      <c r="R27" s="8">
         <v>20.481000000000002</v>
       </c>
     </row>
-    <row r="28" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D28" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
       </c>
       <c r="H28">
         <f>INDEX(data!D:D,MATCH(D28,data!G:G,)+$B$2+G28*12)</f>
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="I28" t="b">
         <f>IFERROR(MATCH(H28,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="L28">
+        <v>503</v>
+      </c>
+      <c r="O28">
         <f>INDEX(data!D:D,MATCH(K28,data!J:J,))</f>
         <v>53</v>
       </c>
-      <c r="M28" t="b">
-        <f>IFERROR(MATCH(L28,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
-        <v>1</v>
-      </c>
-      <c r="O28" s="8">
+      <c r="P28" t="b">
+        <f>IFERROR(MATCH(O28,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <v>1</v>
+      </c>
+      <c r="R28" s="8">
         <v>20.939</v>
       </c>
     </row>
-    <row r="29" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D29" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
       </c>
       <c r="H29">
         <f>INDEX(data!D:D,MATCH(D29,data!G:G,)+$B$2+G29*12)</f>
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="I29" t="b">
         <f>IFERROR(MATCH(H29,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="L29">
+        <v>495</v>
+      </c>
+      <c r="O29">
         <f>INDEX(data!D:D,MATCH(K29,data!J:J,))</f>
         <v>51</v>
       </c>
-      <c r="M29" t="b">
-        <f>IFERROR(MATCH(L29,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
-        <v>1</v>
-      </c>
-      <c r="O29" s="8">
+      <c r="P29" t="b">
+        <f>IFERROR(MATCH(O29,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <v>1</v>
+      </c>
+      <c r="R29" s="8">
         <v>21.439</v>
       </c>
     </row>
-    <row r="30" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D30" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
       </c>
       <c r="H30">
         <f>INDEX(data!D:D,MATCH(D30,data!G:G,)+$B$2+G30*12)</f>
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I30" t="b">
         <f>IFERROR(MATCH(H30,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="L30">
+        <v>505</v>
+      </c>
+      <c r="O30">
         <f>INDEX(data!D:D,MATCH(K30,data!J:J,))</f>
         <v>52</v>
       </c>
-      <c r="M30" t="b">
-        <f>IFERROR(MATCH(L30,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
-        <v>1</v>
-      </c>
-      <c r="O30" s="8">
+      <c r="P30" t="b">
+        <f>IFERROR(MATCH(O30,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <v>1</v>
+      </c>
+      <c r="R30" s="8">
         <v>21.939</v>
       </c>
     </row>
-    <row r="31" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D31" s="1" t="s">
-        <v>510</v>
+        <v>506</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
       </c>
       <c r="H31">
         <f>INDEX(data!D:D,MATCH(D31,data!G:G,)+$B$2+G31*12)</f>
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="I31" t="b">
         <f>IFERROR(MATCH(H31,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="L31">
+        <v>507</v>
+      </c>
+      <c r="O31">
         <f>INDEX(data!D:D,MATCH(K31,data!J:J,))</f>
         <v>47</v>
       </c>
-      <c r="M31" t="b">
-        <f>IFERROR(MATCH(L31,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
-        <v>1</v>
-      </c>
-      <c r="O31" s="8">
+      <c r="P31" t="b">
+        <f>IFERROR(MATCH(O31,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <v>1</v>
+      </c>
+      <c r="R31" s="8">
         <v>22.396999999999998</v>
       </c>
     </row>
-    <row r="32" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D32" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
       </c>
       <c r="H32">
         <f>INDEX(data!D:D,MATCH(D32,data!G:G,)+$B$2+G32*12)</f>
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="I32" t="b">
         <f>IFERROR(MATCH(H32,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="L32">
+        <v>495</v>
+      </c>
+      <c r="O32">
         <f>INDEX(data!D:D,MATCH(K32,data!J:J,))</f>
         <v>51</v>
       </c>
-      <c r="M32" t="b">
-        <f>IFERROR(MATCH(L32,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
-        <v>1</v>
-      </c>
-      <c r="O32" s="8">
+      <c r="P32" t="b">
+        <f>IFERROR(MATCH(O32,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <v>1</v>
+      </c>
+      <c r="R32" s="8">
         <v>22.939</v>
       </c>
     </row>
-    <row r="44" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M44" s="1"/>
+    </row>
+    <row r="45" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M45" s="1"/>
+    </row>
+    <row r="46" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M46" s="1"/>
+    </row>
+    <row r="47" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M47" s="1"/>
+    </row>
+    <row r="48" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M48" s="1"/>
+    </row>
+    <row r="49" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M49" s="1"/>
+    </row>
+    <row r="50" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M50" s="1"/>
+    </row>
+    <row r="51" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F51" s="1"/>
-    </row>
-    <row r="53" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M51" s="1"/>
+    </row>
+    <row r="53" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F53" s="1"/>
-    </row>
-    <row r="55" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M53" s="1"/>
+    </row>
+    <row r="55" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F55" s="1"/>
-    </row>
-    <row r="57" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M55" s="1"/>
+    </row>
+    <row r="57" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M57" s="1"/>
+    </row>
+    <row r="58" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M58" s="1"/>
+    </row>
+    <row r="59" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M59" s="1"/>
+    </row>
+    <row r="60" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M60" s="1"/>
+    </row>
+    <row r="61" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D61" s="1"/>
       <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M61" s="1"/>
+    </row>
+    <row r="62" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F62" s="1"/>
-    </row>
-    <row r="64" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M62" s="1"/>
+    </row>
+    <row r="64" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F64" s="1"/>
-    </row>
-    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M64" s="1"/>
+    </row>
+    <row r="66" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M66" s="1"/>
+    </row>
+    <row r="67" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F67" s="1"/>
-    </row>
-    <row r="68" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M67" s="1"/>
+    </row>
+    <row r="68" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F68" s="1"/>
-    </row>
-    <row r="69" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M68" s="1"/>
+    </row>
+    <row r="69" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F69" s="1"/>
-    </row>
-    <row r="70" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M69" s="1"/>
+    </row>
+    <row r="70" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F70" s="1"/>
-    </row>
-    <row r="71" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M70" s="1"/>
+    </row>
+    <row r="71" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F71" s="1"/>
-    </row>
-    <row r="72" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M71" s="1"/>
+    </row>
+    <row r="72" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M72" s="1"/>
+    </row>
+    <row r="73" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F73" s="1"/>
-    </row>
-    <row r="74" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M73" s="1"/>
+    </row>
+    <row r="74" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F75" s="1"/>
-    </row>
-    <row r="76" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M75" s="1"/>
+    </row>
+    <row r="76" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F76" s="1"/>
-    </row>
-    <row r="77" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M76" s="1"/>
+    </row>
+    <row r="77" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F77" s="1"/>
-    </row>
-    <row r="79" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M77" s="1"/>
+    </row>
+    <row r="79" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F79" s="1"/>
-    </row>
-    <row r="80" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M79" s="1"/>
+    </row>
+    <row r="80" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F80" s="1"/>
-    </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M80" s="1"/>
+    </row>
+    <row r="81" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F81" s="1"/>
-    </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M81" s="1"/>
+    </row>
+    <row r="82" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F82" s="1"/>
-    </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M82" s="1"/>
+    </row>
+    <row r="84" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F84" s="1"/>
-    </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M84" s="1"/>
+    </row>
+    <row r="85" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F85" s="1"/>
-    </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M85" s="1"/>
+    </row>
+    <row r="86" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F86" s="1"/>
-    </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M86" s="1"/>
+    </row>
+    <row r="87" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F87" s="1"/>
-    </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M87" s="1"/>
+    </row>
+    <row r="88" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F88" s="1"/>
-    </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M88" s="1"/>
+    </row>
+    <row r="89" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F89" s="1"/>
-    </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M89" s="1"/>
+    </row>
+    <row r="90" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F90" s="1"/>
-    </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M90" s="1"/>
+    </row>
+    <row r="91" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F91" s="1"/>
-    </row>
-    <row r="92" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M91" s="1"/>
+    </row>
+    <row r="92" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F92" s="1"/>
-    </row>
-    <row r="94" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M92" s="1"/>
+    </row>
+    <row r="94" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F94" s="1"/>
-    </row>
-    <row r="96" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M94" s="1"/>
+    </row>
+    <row r="96" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F96" s="1"/>
-    </row>
-    <row r="98" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M96" s="1"/>
+    </row>
+    <row r="98" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F98" s="1"/>
-    </row>
-    <row r="99" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M98" s="1"/>
+    </row>
+    <row r="99" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F99" s="1"/>
-    </row>
-    <row r="100" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M99" s="1"/>
+    </row>
+    <row r="100" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F100" s="1"/>
-    </row>
-    <row r="101" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M100" s="1"/>
+    </row>
+    <row r="101" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F101" s="1"/>
-    </row>
-    <row r="102" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M101" s="1"/>
+    </row>
+    <row r="102" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F102" s="1"/>
-    </row>
-    <row r="104" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M102" s="1"/>
+    </row>
+    <row r="104" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F104" s="1"/>
-    </row>
-    <row r="106" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M104" s="1"/>
+    </row>
+    <row r="106" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F106" s="1"/>
-    </row>
-    <row r="107" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M106" s="1"/>
+    </row>
+    <row r="107" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F107" s="1"/>
-    </row>
-    <row r="108" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M107" s="1"/>
+    </row>
+    <row r="108" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F108" s="1"/>
-    </row>
-    <row r="109" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M108" s="1"/>
+    </row>
+    <row r="109" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F109" s="1"/>
-    </row>
-    <row r="110" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M109" s="1"/>
+    </row>
+    <row r="110" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F110" s="1"/>
-    </row>
-    <row r="111" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M110" s="1"/>
+    </row>
+    <row r="111" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F111" s="1"/>
-    </row>
-    <row r="112" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M111" s="1"/>
+    </row>
+    <row r="112" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F112" s="1"/>
-    </row>
-    <row r="113" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M112" s="1"/>
+    </row>
+    <row r="113" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F113" s="1"/>
-    </row>
-    <row r="115" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M113" s="1"/>
+    </row>
+    <row r="115" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F115" s="1"/>
-    </row>
-    <row r="117" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M115" s="1"/>
+    </row>
+    <row r="117" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F117" s="1"/>
-    </row>
-    <row r="119" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M117" s="1"/>
+    </row>
+    <row r="119" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F119" s="1"/>
-    </row>
-    <row r="120" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M119" s="1"/>
+    </row>
+    <row r="120" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F120" s="1"/>
-    </row>
-    <row r="121" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M120" s="1"/>
+    </row>
+    <row r="121" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F122" s="1"/>
-    </row>
-    <row r="123" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M122" s="1"/>
+    </row>
+    <row r="123" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F123" s="1"/>
-    </row>
-    <row r="125" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M123" s="1"/>
+    </row>
+    <row r="125" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F125" s="1"/>
-    </row>
-    <row r="167" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M125" s="1"/>
+    </row>
+    <row r="167" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F167" s="1"/>
-    </row>
-    <row r="168" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M167" s="1"/>
+    </row>
+    <row r="168" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F168" s="1"/>
-    </row>
-    <row r="169" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M168" s="1"/>
+    </row>
+    <row r="169" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F169" s="1"/>
-    </row>
-    <row r="170" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M169" s="1"/>
+    </row>
+    <row r="170" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F170" s="1"/>
-    </row>
-    <row r="171" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M170" s="1"/>
+    </row>
+    <row r="171" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F171" s="1"/>
-    </row>
-    <row r="172" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M171" s="1"/>
+    </row>
+    <row r="172" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F172" s="1"/>
-    </row>
-    <row r="173" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M172" s="1"/>
+    </row>
+    <row r="173" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F173" s="1"/>
-    </row>
-    <row r="174" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M173" s="1"/>
+    </row>
+    <row r="174" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F174" s="1"/>
-    </row>
-    <row r="176" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M174" s="1"/>
+    </row>
+    <row r="176" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F176" s="1"/>
-    </row>
-    <row r="178" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M176" s="1"/>
+    </row>
+    <row r="178" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F178" s="1"/>
-    </row>
-    <row r="180" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M178" s="1"/>
+    </row>
+    <row r="180" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F180" s="1"/>
-    </row>
-    <row r="181" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M180" s="1"/>
+    </row>
+    <row r="181" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F181" s="1"/>
-    </row>
-    <row r="182" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M181" s="1"/>
+    </row>
+    <row r="182" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F182" s="1"/>
-    </row>
-    <row r="183" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M182" s="1"/>
+    </row>
+    <row r="183" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F183" s="1"/>
-    </row>
-    <row r="184" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M183" s="1"/>
+    </row>
+    <row r="184" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F184" s="1"/>
-    </row>
-    <row r="186" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M184" s="1"/>
+    </row>
+    <row r="186" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F186" s="1"/>
-    </row>
-    <row r="188" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M186" s="1"/>
+    </row>
+    <row r="188" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F188" s="1"/>
-    </row>
-    <row r="189" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M188" s="1"/>
+    </row>
+    <row r="189" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F189" s="1"/>
-    </row>
-    <row r="190" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M189" s="1"/>
+    </row>
+    <row r="190" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F190" s="1"/>
-    </row>
-    <row r="191" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M190" s="1"/>
+    </row>
+    <row r="191" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F191" s="1"/>
-    </row>
-    <row r="192" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M191" s="1"/>
+    </row>
+    <row r="192" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F192" s="1"/>
-    </row>
-    <row r="193" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M192" s="1"/>
+    </row>
+    <row r="193" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F193" s="1"/>
-    </row>
-    <row r="194" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M193" s="1"/>
+    </row>
+    <row r="194" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F194" s="1"/>
-    </row>
-    <row r="195" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M194" s="1"/>
+    </row>
+    <row r="195" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F195" s="1"/>
-    </row>
-    <row r="196" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M195" s="1"/>
+    </row>
+    <row r="196" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D196" s="1"/>
     </row>
-    <row r="197" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F197" s="1"/>
-    </row>
-    <row r="198" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M197" s="1"/>
+    </row>
+    <row r="198" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F198" s="1"/>
-    </row>
-    <row r="199" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M198" s="1"/>
+    </row>
+    <row r="199" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F199" s="1"/>
-    </row>
-    <row r="201" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M199" s="1"/>
+    </row>
+    <row r="201" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F201" s="1"/>
-    </row>
-    <row r="202" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M201" s="1"/>
+    </row>
+    <row r="202" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F202" s="1"/>
-    </row>
-    <row r="203" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M202" s="1"/>
+    </row>
+    <row r="203" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F203" s="1"/>
-    </row>
-    <row r="204" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M203" s="1"/>
+    </row>
+    <row r="204" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F204" s="1"/>
-    </row>
-    <row r="206" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M204" s="1"/>
+    </row>
+    <row r="206" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F206" s="1"/>
-    </row>
-    <row r="207" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M206" s="1"/>
+    </row>
+    <row r="207" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F207" s="1"/>
-    </row>
-    <row r="208" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M207" s="1"/>
+    </row>
+    <row r="208" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F208" s="1"/>
-    </row>
-    <row r="209" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M208" s="1"/>
+    </row>
+    <row r="209" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F209" s="1"/>
-    </row>
-    <row r="210" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M209" s="1"/>
+    </row>
+    <row r="210" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F210" s="1"/>
-    </row>
-    <row r="211" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M210" s="1"/>
+    </row>
+    <row r="211" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F211" s="1"/>
-    </row>
-    <row r="212" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M211" s="1"/>
+    </row>
+    <row r="212" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F212" s="1"/>
-    </row>
-    <row r="213" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M212" s="1"/>
+    </row>
+    <row r="213" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F213" s="1"/>
-    </row>
-    <row r="214" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M213" s="1"/>
+    </row>
+    <row r="214" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F214" s="1"/>
-    </row>
-    <row r="216" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M214" s="1"/>
+    </row>
+    <row r="216" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F216" s="1"/>
-    </row>
-    <row r="218" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M216" s="1"/>
+    </row>
+    <row r="218" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F218" s="1"/>
-    </row>
-    <row r="220" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M218" s="1"/>
+    </row>
+    <row r="220" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F220" s="1"/>
-    </row>
-    <row r="221" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M220" s="1"/>
+    </row>
+    <row r="221" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F221" s="1"/>
-    </row>
-    <row r="222" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M221" s="1"/>
+    </row>
+    <row r="222" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F222" s="1"/>
-    </row>
-    <row r="223" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M222" s="1"/>
+    </row>
+    <row r="223" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F223" s="1"/>
-    </row>
-    <row r="224" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="M223" s="1"/>
+    </row>
+    <row r="224" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F224" s="1"/>
-    </row>
-    <row r="226" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M224" s="1"/>
+    </row>
+    <row r="226" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F226" s="1"/>
-    </row>
-    <row r="228" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M226" s="1"/>
+    </row>
+    <row r="228" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F228" s="1"/>
-    </row>
-    <row r="229" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M228" s="1"/>
+    </row>
+    <row r="229" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F229" s="1"/>
-    </row>
-    <row r="230" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M229" s="1"/>
+    </row>
+    <row r="230" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F230" s="1"/>
-    </row>
-    <row r="231" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M230" s="1"/>
+    </row>
+    <row r="231" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F231" s="1"/>
-    </row>
-    <row r="232" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M231" s="1"/>
+    </row>
+    <row r="232" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F232" s="1"/>
-    </row>
-    <row r="233" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M232" s="1"/>
+    </row>
+    <row r="233" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F233" s="1"/>
-    </row>
-    <row r="234" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M233" s="1"/>
+    </row>
+    <row r="234" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F234" s="1"/>
-    </row>
-    <row r="235" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M234" s="1"/>
+    </row>
+    <row r="235" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F235" s="1"/>
-    </row>
-    <row r="236" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M235" s="1"/>
+    </row>
+    <row r="236" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D236" s="1"/>
     </row>
-    <row r="237" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F237" s="1"/>
-    </row>
-    <row r="239" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="M237" s="1"/>
+    </row>
+    <row r="239" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F239" s="1"/>
-    </row>
-    <row r="241" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="M239" s="1"/>
+    </row>
+    <row r="241" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F241" s="1"/>
-    </row>
-    <row r="242" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="M241" s="1"/>
+    </row>
+    <row r="242" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F242" s="1"/>
-    </row>
-    <row r="244" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="M242" s="1"/>
+    </row>
+    <row r="244" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F244" s="1"/>
-    </row>
-    <row r="245" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="M244" s="1"/>
+    </row>
+    <row r="245" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F245" s="1"/>
-    </row>
-    <row r="247" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="M245" s="1"/>
+    </row>
+    <row r="247" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F247" s="1"/>
-    </row>
-    <row r="248" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="M247" s="1"/>
+    </row>
+    <row r="248" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D248" s="1"/>
       <c r="K248" s="1"/>
     </row>
@@ -3882,12 +4080,12 @@
   <dimension ref="A1:K92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.08984375" customWidth="1"/>
     <col min="5" max="9" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.26953125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.36328125" bestFit="1" customWidth="1"/>
@@ -3895,39 +4093,39 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>511</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>484</v>
+        <v>512</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>481</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>483</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
-        <v>37</v>
+      <c r="K1" s="1" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3936,30 +4134,30 @@
         <v>41</v>
       </c>
       <c r="E2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="F2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G2" t="s">
-        <v>169</v>
       </c>
       <c r="H2">
         <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J2" t="s">
-        <v>27</v>
+        <v>169</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -3968,27 +4166,27 @@
         <v>-41</v>
       </c>
       <c r="E3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="F3" t="s">
-        <v>173</v>
-      </c>
-      <c r="G3" t="s">
-        <v>174</v>
       </c>
       <c r="H3">
         <v>49</v>
       </c>
       <c r="I3" t="s">
-        <v>175</v>
-      </c>
-      <c r="J3" t="s">
-        <v>176</v>
+        <v>173</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -3997,30 +4195,30 @@
         <v>42</v>
       </c>
       <c r="E4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="F4" t="s">
-        <v>178</v>
-      </c>
-      <c r="G4" t="s">
-        <v>179</v>
       </c>
       <c r="H4">
         <v>50</v>
       </c>
       <c r="I4" t="s">
-        <v>181</v>
-      </c>
-      <c r="J4" t="s">
-        <v>29</v>
+        <v>179</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="K4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -4029,27 +4227,27 @@
         <v>-42</v>
       </c>
       <c r="E5" t="s">
+        <v>180</v>
+      </c>
+      <c r="F5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="F5" t="s">
-        <v>183</v>
-      </c>
-      <c r="G5" t="s">
-        <v>184</v>
       </c>
       <c r="H5">
         <v>51</v>
       </c>
       <c r="I5" t="s">
-        <v>185</v>
-      </c>
-      <c r="J5" t="s">
-        <v>186</v>
+        <v>183</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -4058,30 +4256,30 @@
         <v>43</v>
       </c>
       <c r="E6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="F6" t="s">
-        <v>188</v>
-      </c>
-      <c r="G6" t="s">
-        <v>189</v>
       </c>
       <c r="H6">
         <v>52</v>
       </c>
       <c r="I6" t="s">
-        <v>191</v>
-      </c>
-      <c r="J6" t="s">
-        <v>31</v>
+        <v>189</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="K6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -4090,30 +4288,30 @@
         <v>44</v>
       </c>
       <c r="E7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="F7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G7" t="s">
-        <v>194</v>
       </c>
       <c r="H7">
         <v>53</v>
       </c>
       <c r="I7" t="s">
-        <v>196</v>
-      </c>
-      <c r="J7" t="s">
-        <v>32</v>
+        <v>194</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="K7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -4122,27 +4320,27 @@
         <v>-44</v>
       </c>
       <c r="E8" t="s">
+        <v>195</v>
+      </c>
+      <c r="F8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="F8" t="s">
-        <v>198</v>
-      </c>
-      <c r="G8" t="s">
-        <v>199</v>
       </c>
       <c r="H8">
         <v>54</v>
       </c>
       <c r="I8" t="s">
-        <v>200</v>
-      </c>
-      <c r="J8" t="s">
-        <v>201</v>
+        <v>198</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -4151,30 +4349,30 @@
         <v>45</v>
       </c>
       <c r="E9" t="s">
+        <v>200</v>
+      </c>
+      <c r="F9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="F9" t="s">
-        <v>203</v>
-      </c>
-      <c r="G9" t="s">
-        <v>204</v>
       </c>
       <c r="H9">
         <v>55</v>
       </c>
       <c r="I9" t="s">
-        <v>206</v>
-      </c>
-      <c r="J9" t="s">
-        <v>34</v>
+        <v>204</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="K9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -4183,27 +4381,27 @@
         <v>-45</v>
       </c>
       <c r="E10" t="s">
+        <v>205</v>
+      </c>
+      <c r="F10" t="s">
+        <v>206</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="F10" t="s">
-        <v>208</v>
-      </c>
-      <c r="G10" t="s">
-        <v>209</v>
       </c>
       <c r="H10">
         <v>56</v>
       </c>
       <c r="I10" t="s">
-        <v>210</v>
-      </c>
-      <c r="J10" t="s">
-        <v>211</v>
+        <v>208</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -4212,30 +4410,30 @@
         <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F11" t="s">
-        <v>213</v>
-      </c>
-      <c r="G11" t="s">
+        <v>211</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H11">
         <v>57</v>
       </c>
       <c r="I11" t="s">
-        <v>215</v>
-      </c>
-      <c r="J11" t="s">
-        <v>24</v>
+        <v>213</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="K11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -4244,27 +4442,27 @@
         <v>-46</v>
       </c>
       <c r="E12" t="s">
+        <v>214</v>
+      </c>
+      <c r="F12" t="s">
+        <v>215</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="F12" t="s">
-        <v>217</v>
-      </c>
-      <c r="G12" t="s">
-        <v>218</v>
       </c>
       <c r="H12">
         <v>58</v>
       </c>
       <c r="I12" t="s">
-        <v>219</v>
-      </c>
-      <c r="J12" t="s">
-        <v>220</v>
+        <v>217</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -4273,30 +4471,30 @@
         <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F13" t="s">
-        <v>222</v>
-      </c>
-      <c r="G13" t="s">
+        <v>220</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H13">
         <v>59</v>
       </c>
       <c r="I13" t="s">
-        <v>224</v>
-      </c>
-      <c r="J13" t="s">
-        <v>26</v>
+        <v>222</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="K13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -4308,27 +4506,27 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H14">
         <v>60</v>
       </c>
       <c r="I14" t="s">
-        <v>226</v>
-      </c>
-      <c r="J14" t="s">
-        <v>227</v>
+        <v>224</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="K14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -4337,27 +4535,27 @@
         <v>-51</v>
       </c>
       <c r="E15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F15" t="s">
-        <v>229</v>
-      </c>
-      <c r="G15" t="s">
+        <v>227</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H15">
         <v>61</v>
       </c>
       <c r="I15" t="s">
-        <v>230</v>
-      </c>
-      <c r="J15" t="s">
-        <v>231</v>
+        <v>228</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -4369,27 +4567,27 @@
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H16">
         <v>62</v>
       </c>
       <c r="I16" t="s">
-        <v>233</v>
-      </c>
-      <c r="J16" t="s">
-        <v>234</v>
+        <v>231</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>232</v>
       </c>
       <c r="K16" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -4398,27 +4596,27 @@
         <v>-52</v>
       </c>
       <c r="E17" t="s">
+        <v>233</v>
+      </c>
+      <c r="F17" t="s">
+        <v>234</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="F17" t="s">
-        <v>236</v>
-      </c>
-      <c r="G17" t="s">
-        <v>237</v>
       </c>
       <c r="H17">
         <v>63</v>
       </c>
       <c r="I17" t="s">
-        <v>238</v>
-      </c>
-      <c r="J17" t="s">
-        <v>239</v>
+        <v>236</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -4430,27 +4628,27 @@
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>1</v>
       </c>
       <c r="H18">
         <v>64</v>
       </c>
       <c r="I18" t="s">
-        <v>241</v>
-      </c>
-      <c r="J18" t="s">
-        <v>242</v>
+        <v>239</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>240</v>
       </c>
       <c r="K18" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>6</v>
@@ -4462,27 +4660,27 @@
         <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" t="s">
-        <v>243</v>
+        <v>31</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>241</v>
       </c>
       <c r="H19">
         <v>65</v>
       </c>
       <c r="I19" t="s">
-        <v>245</v>
-      </c>
-      <c r="J19" t="s">
-        <v>246</v>
+        <v>243</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>244</v>
       </c>
       <c r="K19" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20">
         <v>7</v>
@@ -4491,27 +4689,27 @@
         <v>-54</v>
       </c>
       <c r="E20" t="s">
+        <v>245</v>
+      </c>
+      <c r="F20" t="s">
+        <v>246</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>247</v>
-      </c>
-      <c r="F20" t="s">
-        <v>248</v>
-      </c>
-      <c r="G20" t="s">
-        <v>249</v>
       </c>
       <c r="H20">
         <v>66</v>
       </c>
       <c r="I20" t="s">
-        <v>250</v>
-      </c>
-      <c r="J20" t="s">
-        <v>251</v>
+        <v>248</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21">
         <v>8</v>
@@ -4523,27 +4721,27 @@
         <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H21">
         <v>67</v>
       </c>
       <c r="I21" t="s">
-        <v>253</v>
-      </c>
-      <c r="J21" t="s">
-        <v>254</v>
+        <v>251</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>252</v>
       </c>
       <c r="K21" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22">
         <v>9</v>
@@ -4552,27 +4750,27 @@
         <v>-55</v>
       </c>
       <c r="E22" t="s">
+        <v>253</v>
+      </c>
+      <c r="F22" t="s">
+        <v>254</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="F22" t="s">
-        <v>256</v>
-      </c>
-      <c r="G22" t="s">
-        <v>257</v>
       </c>
       <c r="H22">
         <v>68</v>
       </c>
       <c r="I22" t="s">
-        <v>258</v>
-      </c>
-      <c r="J22" t="s">
-        <v>259</v>
+        <v>256</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23">
         <v>10</v>
@@ -4584,27 +4782,27 @@
         <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H23">
         <v>69</v>
       </c>
       <c r="I23" t="s">
-        <v>261</v>
-      </c>
-      <c r="J23" t="s">
-        <v>262</v>
+        <v>259</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>260</v>
       </c>
       <c r="K23" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24">
         <v>11</v>
@@ -4613,27 +4811,27 @@
         <v>-56</v>
       </c>
       <c r="E24" t="s">
+        <v>261</v>
+      </c>
+      <c r="F24" t="s">
+        <v>262</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="F24" t="s">
-        <v>264</v>
-      </c>
-      <c r="G24" t="s">
-        <v>265</v>
       </c>
       <c r="H24">
         <v>70</v>
       </c>
       <c r="I24" t="s">
-        <v>266</v>
-      </c>
-      <c r="J24" t="s">
-        <v>267</v>
+        <v>264</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25">
         <v>12</v>
@@ -4645,22 +4843,22 @@
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" t="s">
-        <v>268</v>
+        <v>25</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>266</v>
       </c>
       <c r="H25">
         <v>71</v>
       </c>
       <c r="I25" t="s">
-        <v>270</v>
-      </c>
-      <c r="J25" t="s">
-        <v>271</v>
+        <v>268</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>269</v>
       </c>
       <c r="K25" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -4668,25 +4866,25 @@
         <v>61</v>
       </c>
       <c r="E26" t="s">
+        <v>270</v>
+      </c>
+      <c r="F26" t="s">
+        <v>271</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="F26" t="s">
-        <v>273</v>
-      </c>
-      <c r="G26" t="s">
-        <v>274</v>
       </c>
       <c r="H26">
         <v>72</v>
       </c>
       <c r="I26" t="s">
-        <v>276</v>
-      </c>
-      <c r="J26" t="s">
-        <v>277</v>
+        <v>274</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>275</v>
       </c>
       <c r="K26" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -4694,22 +4892,22 @@
         <v>-61</v>
       </c>
       <c r="E27" t="s">
+        <v>276</v>
+      </c>
+      <c r="F27" t="s">
+        <v>277</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>278</v>
-      </c>
-      <c r="F27" t="s">
-        <v>279</v>
-      </c>
-      <c r="G27" t="s">
-        <v>280</v>
       </c>
       <c r="H27">
         <v>73</v>
       </c>
       <c r="I27" t="s">
-        <v>281</v>
-      </c>
-      <c r="J27" t="s">
-        <v>282</v>
+        <v>279</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -4717,25 +4915,25 @@
         <v>62</v>
       </c>
       <c r="E28" t="s">
+        <v>281</v>
+      </c>
+      <c r="F28" t="s">
+        <v>282</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>283</v>
-      </c>
-      <c r="F28" t="s">
-        <v>284</v>
-      </c>
-      <c r="G28" t="s">
-        <v>285</v>
       </c>
       <c r="H28">
         <v>74</v>
       </c>
       <c r="I28" t="s">
-        <v>287</v>
-      </c>
-      <c r="J28" t="s">
-        <v>288</v>
+        <v>285</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="K28" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -4743,22 +4941,22 @@
         <v>-62</v>
       </c>
       <c r="E29" t="s">
+        <v>287</v>
+      </c>
+      <c r="F29" t="s">
+        <v>288</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>289</v>
-      </c>
-      <c r="F29" t="s">
-        <v>290</v>
-      </c>
-      <c r="G29" t="s">
-        <v>291</v>
       </c>
       <c r="H29">
         <v>75</v>
       </c>
       <c r="I29" t="s">
-        <v>292</v>
-      </c>
-      <c r="J29" t="s">
-        <v>293</v>
+        <v>290</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -4766,25 +4964,25 @@
         <v>63</v>
       </c>
       <c r="E30" t="s">
+        <v>292</v>
+      </c>
+      <c r="F30" t="s">
+        <v>293</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>294</v>
-      </c>
-      <c r="F30" t="s">
-        <v>295</v>
-      </c>
-      <c r="G30" t="s">
-        <v>296</v>
       </c>
       <c r="H30">
         <v>76</v>
       </c>
       <c r="I30" t="s">
-        <v>298</v>
-      </c>
-      <c r="J30" t="s">
-        <v>299</v>
+        <v>296</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>297</v>
       </c>
       <c r="K30" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -4792,25 +4990,25 @@
         <v>64</v>
       </c>
       <c r="E31" t="s">
+        <v>298</v>
+      </c>
+      <c r="F31" t="s">
+        <v>299</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>300</v>
-      </c>
-      <c r="F31" t="s">
-        <v>301</v>
-      </c>
-      <c r="G31" t="s">
-        <v>302</v>
       </c>
       <c r="H31">
         <v>77</v>
       </c>
       <c r="I31" t="s">
-        <v>304</v>
-      </c>
-      <c r="J31" t="s">
-        <v>305</v>
+        <v>302</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>303</v>
       </c>
       <c r="K31" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -4818,22 +5016,22 @@
         <v>-64</v>
       </c>
       <c r="E32" t="s">
+        <v>304</v>
+      </c>
+      <c r="F32" t="s">
+        <v>305</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>306</v>
-      </c>
-      <c r="F32" t="s">
-        <v>307</v>
-      </c>
-      <c r="G32" t="s">
-        <v>308</v>
       </c>
       <c r="H32">
         <v>78</v>
       </c>
       <c r="I32" t="s">
-        <v>309</v>
-      </c>
-      <c r="J32" t="s">
-        <v>310</v>
+        <v>307</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="33" spans="4:11" x14ac:dyDescent="0.25">
@@ -4841,25 +5039,25 @@
         <v>65</v>
       </c>
       <c r="E33" t="s">
+        <v>309</v>
+      </c>
+      <c r="F33" t="s">
+        <v>310</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>311</v>
-      </c>
-      <c r="F33" t="s">
-        <v>312</v>
-      </c>
-      <c r="G33" t="s">
-        <v>313</v>
       </c>
       <c r="H33">
         <v>79</v>
       </c>
       <c r="I33" t="s">
-        <v>315</v>
-      </c>
-      <c r="J33" t="s">
-        <v>316</v>
+        <v>313</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>314</v>
       </c>
       <c r="K33" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="34" spans="4:11" x14ac:dyDescent="0.25">
@@ -4867,22 +5065,22 @@
         <v>-65</v>
       </c>
       <c r="E34" t="s">
+        <v>315</v>
+      </c>
+      <c r="F34" t="s">
+        <v>316</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>317</v>
-      </c>
-      <c r="F34" t="s">
-        <v>318</v>
-      </c>
-      <c r="G34" t="s">
-        <v>319</v>
       </c>
       <c r="H34">
         <v>80</v>
       </c>
       <c r="I34" t="s">
-        <v>320</v>
-      </c>
-      <c r="J34" t="s">
-        <v>321</v>
+        <v>318</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="35" spans="4:11" x14ac:dyDescent="0.25">
@@ -4890,25 +5088,25 @@
         <v>66</v>
       </c>
       <c r="E35" t="s">
+        <v>320</v>
+      </c>
+      <c r="F35" t="s">
+        <v>321</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>322</v>
-      </c>
-      <c r="F35" t="s">
-        <v>323</v>
-      </c>
-      <c r="G35" t="s">
-        <v>324</v>
       </c>
       <c r="H35">
         <v>81</v>
       </c>
       <c r="I35" t="s">
-        <v>326</v>
-      </c>
-      <c r="J35" t="s">
-        <v>327</v>
+        <v>324</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>325</v>
       </c>
       <c r="K35" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="36" spans="4:11" x14ac:dyDescent="0.25">
@@ -4916,22 +5114,22 @@
         <v>-66</v>
       </c>
       <c r="E36" t="s">
+        <v>326</v>
+      </c>
+      <c r="F36" t="s">
+        <v>327</v>
+      </c>
+      <c r="G36" s="3" t="s">
         <v>328</v>
-      </c>
-      <c r="F36" t="s">
-        <v>329</v>
-      </c>
-      <c r="G36" t="s">
-        <v>330</v>
       </c>
       <c r="H36">
         <v>82</v>
       </c>
       <c r="I36" t="s">
-        <v>331</v>
-      </c>
-      <c r="J36" t="s">
-        <v>332</v>
+        <v>329</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.25">
@@ -4939,30 +5137,30 @@
         <v>67</v>
       </c>
       <c r="E37" t="s">
+        <v>331</v>
+      </c>
+      <c r="F37" t="s">
+        <v>332</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>333</v>
-      </c>
-      <c r="F37" t="s">
-        <v>334</v>
-      </c>
-      <c r="G37" t="s">
-        <v>335</v>
       </c>
       <c r="H37">
         <v>83</v>
       </c>
       <c r="I37" t="s">
-        <v>337</v>
-      </c>
-      <c r="J37" t="s">
-        <v>338</v>
+        <v>335</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>336</v>
       </c>
       <c r="K37" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="39" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D39" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="40" spans="4:11" x14ac:dyDescent="0.25">
@@ -4970,25 +5168,25 @@
         <v>16</v>
       </c>
       <c r="E40" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40" t="s">
+        <v>37</v>
+      </c>
+      <c r="G40" t="s">
         <v>38</v>
-      </c>
-      <c r="F40" t="s">
-        <v>39</v>
-      </c>
-      <c r="G40" t="s">
-        <v>40</v>
       </c>
       <c r="H40">
         <v>21</v>
       </c>
       <c r="I40" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J40" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="4:11" x14ac:dyDescent="0.25">
@@ -4996,22 +5194,22 @@
         <v>-16</v>
       </c>
       <c r="E41" t="s">
+        <v>42</v>
+      </c>
+      <c r="F41" t="s">
+        <v>43</v>
+      </c>
+      <c r="G41" t="s">
         <v>44</v>
-      </c>
-      <c r="F41" t="s">
-        <v>45</v>
-      </c>
-      <c r="G41" t="s">
-        <v>46</v>
       </c>
       <c r="H41">
         <v>22</v>
       </c>
       <c r="I41" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J41" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="4:11" x14ac:dyDescent="0.25">
@@ -5019,25 +5217,25 @@
         <v>17</v>
       </c>
       <c r="E42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" t="s">
+        <v>48</v>
+      </c>
+      <c r="G42" t="s">
         <v>49</v>
-      </c>
-      <c r="F42" t="s">
-        <v>50</v>
-      </c>
-      <c r="G42" t="s">
-        <v>51</v>
       </c>
       <c r="H42">
         <v>23</v>
       </c>
       <c r="I42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J42" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K42" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="4:11" x14ac:dyDescent="0.25">
@@ -5045,25 +5243,25 @@
         <v>21</v>
       </c>
       <c r="E43" t="s">
+        <v>53</v>
+      </c>
+      <c r="F43" t="s">
+        <v>54</v>
+      </c>
+      <c r="G43" t="s">
         <v>55</v>
-      </c>
-      <c r="F43" t="s">
-        <v>56</v>
-      </c>
-      <c r="G43" t="s">
-        <v>57</v>
       </c>
       <c r="H43">
         <v>24</v>
       </c>
       <c r="I43" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J43" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K43" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="4:11" x14ac:dyDescent="0.25">
@@ -5071,22 +5269,22 @@
         <v>-21</v>
       </c>
       <c r="E44" t="s">
+        <v>58</v>
+      </c>
+      <c r="F44" t="s">
+        <v>59</v>
+      </c>
+      <c r="G44" t="s">
         <v>60</v>
-      </c>
-      <c r="F44" t="s">
-        <v>61</v>
-      </c>
-      <c r="G44" t="s">
-        <v>62</v>
       </c>
       <c r="H44">
         <v>25</v>
       </c>
       <c r="I44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="4:11" x14ac:dyDescent="0.25">
@@ -5094,25 +5292,25 @@
         <v>22</v>
       </c>
       <c r="E45" t="s">
+        <v>62</v>
+      </c>
+      <c r="F45" t="s">
+        <v>63</v>
+      </c>
+      <c r="G45" t="s">
         <v>64</v>
-      </c>
-      <c r="F45" t="s">
-        <v>65</v>
-      </c>
-      <c r="G45" t="s">
-        <v>66</v>
       </c>
       <c r="H45">
         <v>26</v>
       </c>
       <c r="I45" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J45" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K45" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="4:11" x14ac:dyDescent="0.25">
@@ -5120,22 +5318,22 @@
         <v>-22</v>
       </c>
       <c r="E46" t="s">
+        <v>67</v>
+      </c>
+      <c r="F46" t="s">
+        <v>68</v>
+      </c>
+      <c r="G46" t="s">
         <v>69</v>
-      </c>
-      <c r="F46" t="s">
-        <v>70</v>
-      </c>
-      <c r="G46" t="s">
-        <v>71</v>
       </c>
       <c r="H46">
         <v>27</v>
       </c>
       <c r="I46" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J46" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="4:11" x14ac:dyDescent="0.25">
@@ -5143,25 +5341,25 @@
         <v>23</v>
       </c>
       <c r="E47" t="s">
+        <v>71</v>
+      </c>
+      <c r="F47" t="s">
+        <v>72</v>
+      </c>
+      <c r="G47" t="s">
         <v>73</v>
-      </c>
-      <c r="F47" t="s">
-        <v>74</v>
-      </c>
-      <c r="G47" t="s">
-        <v>75</v>
       </c>
       <c r="H47">
         <v>28</v>
       </c>
       <c r="I47" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J47" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K47" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="4:11" x14ac:dyDescent="0.25">
@@ -5169,25 +5367,25 @@
         <v>24</v>
       </c>
       <c r="E48" t="s">
+        <v>76</v>
+      </c>
+      <c r="F48" t="s">
+        <v>77</v>
+      </c>
+      <c r="G48" t="s">
         <v>78</v>
-      </c>
-      <c r="F48" t="s">
-        <v>79</v>
-      </c>
-      <c r="G48" t="s">
-        <v>80</v>
       </c>
       <c r="H48">
         <v>29</v>
       </c>
       <c r="I48" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J48" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K48" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="4:11" x14ac:dyDescent="0.25">
@@ -5195,22 +5393,22 @@
         <v>-24</v>
       </c>
       <c r="E49" t="s">
+        <v>81</v>
+      </c>
+      <c r="F49" t="s">
+        <v>82</v>
+      </c>
+      <c r="G49" t="s">
         <v>83</v>
-      </c>
-      <c r="F49" t="s">
-        <v>84</v>
-      </c>
-      <c r="G49" t="s">
-        <v>85</v>
       </c>
       <c r="H49">
         <v>30</v>
       </c>
       <c r="I49" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J49" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="4:11" x14ac:dyDescent="0.25">
@@ -5218,25 +5416,25 @@
         <v>25</v>
       </c>
       <c r="E50" t="s">
+        <v>85</v>
+      </c>
+      <c r="F50" t="s">
+        <v>86</v>
+      </c>
+      <c r="G50" t="s">
         <v>87</v>
-      </c>
-      <c r="F50" t="s">
-        <v>88</v>
-      </c>
-      <c r="G50" t="s">
-        <v>89</v>
       </c>
       <c r="H50">
         <v>31</v>
       </c>
       <c r="I50" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J50" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K50" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="4:11" x14ac:dyDescent="0.25">
@@ -5244,22 +5442,22 @@
         <v>-25</v>
       </c>
       <c r="E51" t="s">
+        <v>90</v>
+      </c>
+      <c r="F51" t="s">
+        <v>91</v>
+      </c>
+      <c r="G51" t="s">
         <v>92</v>
-      </c>
-      <c r="F51" t="s">
-        <v>93</v>
-      </c>
-      <c r="G51" t="s">
-        <v>94</v>
       </c>
       <c r="H51">
         <v>32</v>
       </c>
       <c r="I51" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J51" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="4:11" x14ac:dyDescent="0.25">
@@ -5267,25 +5465,25 @@
         <v>26</v>
       </c>
       <c r="E52" t="s">
+        <v>94</v>
+      </c>
+      <c r="F52" t="s">
+        <v>95</v>
+      </c>
+      <c r="G52" t="s">
         <v>96</v>
-      </c>
-      <c r="F52" t="s">
-        <v>97</v>
-      </c>
-      <c r="G52" t="s">
-        <v>98</v>
       </c>
       <c r="H52">
         <v>33</v>
       </c>
       <c r="I52" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J52" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K52" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="4:11" x14ac:dyDescent="0.25">
@@ -5293,22 +5491,22 @@
         <v>-26</v>
       </c>
       <c r="E53" t="s">
+        <v>99</v>
+      </c>
+      <c r="F53" t="s">
+        <v>100</v>
+      </c>
+      <c r="G53" t="s">
         <v>101</v>
-      </c>
-      <c r="F53" t="s">
-        <v>102</v>
-      </c>
-      <c r="G53" t="s">
-        <v>103</v>
       </c>
       <c r="H53">
         <v>34</v>
       </c>
       <c r="I53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="4:11" x14ac:dyDescent="0.25">
@@ -5316,25 +5514,25 @@
         <v>27</v>
       </c>
       <c r="E54" t="s">
+        <v>103</v>
+      </c>
+      <c r="F54" t="s">
+        <v>104</v>
+      </c>
+      <c r="G54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
-      </c>
-      <c r="G54" t="s">
-        <v>107</v>
       </c>
       <c r="H54">
         <v>35</v>
       </c>
       <c r="I54" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J54" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="4:11" x14ac:dyDescent="0.25">
@@ -5342,25 +5540,25 @@
         <v>31</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
+        <v>109</v>
+      </c>
+      <c r="G55" t="s">
         <v>110</v>
-      </c>
-      <c r="F55" t="s">
-        <v>111</v>
-      </c>
-      <c r="G55" t="s">
-        <v>112</v>
       </c>
       <c r="H55">
         <v>36</v>
       </c>
       <c r="I55" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K55" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="4:11" x14ac:dyDescent="0.25">
@@ -5368,22 +5566,22 @@
         <v>-31</v>
       </c>
       <c r="E56" t="s">
+        <v>113</v>
+      </c>
+      <c r="F56" t="s">
+        <v>114</v>
+      </c>
+      <c r="G56" t="s">
         <v>115</v>
-      </c>
-      <c r="F56" t="s">
-        <v>116</v>
-      </c>
-      <c r="G56" t="s">
-        <v>117</v>
       </c>
       <c r="H56">
         <v>37</v>
       </c>
       <c r="I56" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J56" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="4:11" x14ac:dyDescent="0.25">
@@ -5391,25 +5589,25 @@
         <v>32</v>
       </c>
       <c r="E57" t="s">
+        <v>118</v>
+      </c>
+      <c r="F57" t="s">
+        <v>119</v>
+      </c>
+      <c r="G57" t="s">
         <v>120</v>
-      </c>
-      <c r="F57" t="s">
-        <v>121</v>
-      </c>
-      <c r="G57" t="s">
-        <v>122</v>
       </c>
       <c r="H57">
         <v>38</v>
       </c>
       <c r="I57" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K57" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58" spans="4:11" x14ac:dyDescent="0.25">
@@ -5417,22 +5615,22 @@
         <v>-32</v>
       </c>
       <c r="E58" t="s">
+        <v>123</v>
+      </c>
+      <c r="F58" t="s">
+        <v>124</v>
+      </c>
+      <c r="G58" t="s">
         <v>125</v>
-      </c>
-      <c r="F58" t="s">
-        <v>126</v>
-      </c>
-      <c r="G58" t="s">
-        <v>127</v>
       </c>
       <c r="H58">
         <v>39</v>
       </c>
       <c r="I58" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J58" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="4:11" x14ac:dyDescent="0.25">
@@ -5440,25 +5638,25 @@
         <v>33</v>
       </c>
       <c r="E59" t="s">
+        <v>128</v>
+      </c>
+      <c r="F59" t="s">
+        <v>129</v>
+      </c>
+      <c r="G59" t="s">
         <v>130</v>
-      </c>
-      <c r="F59" t="s">
-        <v>131</v>
-      </c>
-      <c r="G59" t="s">
-        <v>132</v>
       </c>
       <c r="H59">
         <v>40</v>
       </c>
       <c r="I59" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K59" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="4:11" x14ac:dyDescent="0.25">
@@ -5466,25 +5664,25 @@
         <v>34</v>
       </c>
       <c r="E60" t="s">
+        <v>133</v>
+      </c>
+      <c r="F60" t="s">
+        <v>134</v>
+      </c>
+      <c r="G60" t="s">
         <v>135</v>
-      </c>
-      <c r="F60" t="s">
-        <v>136</v>
-      </c>
-      <c r="G60" t="s">
-        <v>137</v>
       </c>
       <c r="H60">
         <v>41</v>
       </c>
       <c r="I60" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K60" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="4:11" x14ac:dyDescent="0.25">
@@ -5492,22 +5690,22 @@
         <v>-34</v>
       </c>
       <c r="E61" t="s">
+        <v>138</v>
+      </c>
+      <c r="F61" t="s">
+        <v>139</v>
+      </c>
+      <c r="G61" t="s">
         <v>140</v>
-      </c>
-      <c r="F61" t="s">
-        <v>141</v>
-      </c>
-      <c r="G61" t="s">
-        <v>142</v>
       </c>
       <c r="H61">
         <v>42</v>
       </c>
       <c r="I61" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J61" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="62" spans="4:11" x14ac:dyDescent="0.25">
@@ -5515,25 +5713,25 @@
         <v>35</v>
       </c>
       <c r="E62" t="s">
+        <v>143</v>
+      </c>
+      <c r="F62" t="s">
+        <v>144</v>
+      </c>
+      <c r="G62" t="s">
         <v>145</v>
-      </c>
-      <c r="F62" t="s">
-        <v>146</v>
-      </c>
-      <c r="G62" t="s">
-        <v>147</v>
       </c>
       <c r="H62">
         <v>43</v>
       </c>
       <c r="I62" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K62" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="4:11" x14ac:dyDescent="0.25">
@@ -5541,22 +5739,22 @@
         <v>-35</v>
       </c>
       <c r="E63" t="s">
+        <v>148</v>
+      </c>
+      <c r="F63" t="s">
+        <v>149</v>
+      </c>
+      <c r="G63" t="s">
         <v>150</v>
-      </c>
-      <c r="F63" t="s">
-        <v>151</v>
-      </c>
-      <c r="G63" t="s">
-        <v>152</v>
       </c>
       <c r="H63">
         <v>44</v>
       </c>
       <c r="I63" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J63" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="4:11" x14ac:dyDescent="0.25">
@@ -5564,25 +5762,25 @@
         <v>36</v>
       </c>
       <c r="E64" t="s">
+        <v>153</v>
+      </c>
+      <c r="F64" t="s">
+        <v>154</v>
+      </c>
+      <c r="G64" t="s">
         <v>155</v>
-      </c>
-      <c r="F64" t="s">
-        <v>156</v>
-      </c>
-      <c r="G64" t="s">
-        <v>157</v>
       </c>
       <c r="H64">
         <v>45</v>
       </c>
       <c r="I64" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J64" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K64" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65" spans="4:11" x14ac:dyDescent="0.25">
@@ -5590,22 +5788,22 @@
         <v>-36</v>
       </c>
       <c r="E65" t="s">
+        <v>157</v>
+      </c>
+      <c r="F65" t="s">
+        <v>158</v>
+      </c>
+      <c r="G65" t="s">
         <v>159</v>
-      </c>
-      <c r="F65" t="s">
-        <v>160</v>
-      </c>
-      <c r="G65" t="s">
-        <v>161</v>
       </c>
       <c r="H65">
         <v>46</v>
       </c>
       <c r="I65" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J65" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66" spans="4:11" x14ac:dyDescent="0.25">
@@ -5613,25 +5811,25 @@
         <v>37</v>
       </c>
       <c r="E66" t="s">
+        <v>161</v>
+      </c>
+      <c r="F66" t="s">
+        <v>162</v>
+      </c>
+      <c r="G66" t="s">
         <v>163</v>
-      </c>
-      <c r="F66" t="s">
-        <v>164</v>
-      </c>
-      <c r="G66" t="s">
-        <v>165</v>
       </c>
       <c r="H66">
         <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K66" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="68" spans="4:11" x14ac:dyDescent="0.25">
@@ -5639,25 +5837,25 @@
         <v>71</v>
       </c>
       <c r="E68" t="s">
+        <v>337</v>
+      </c>
+      <c r="F68" t="s">
+        <v>338</v>
+      </c>
+      <c r="G68" t="s">
         <v>339</v>
-      </c>
-      <c r="F68" t="s">
-        <v>340</v>
-      </c>
-      <c r="G68" t="s">
-        <v>341</v>
       </c>
       <c r="H68">
         <v>84</v>
       </c>
       <c r="I68" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J68" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K68" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="69" spans="4:11" x14ac:dyDescent="0.25">
@@ -5665,22 +5863,22 @@
         <v>-71</v>
       </c>
       <c r="E69" t="s">
+        <v>343</v>
+      </c>
+      <c r="F69" t="s">
+        <v>344</v>
+      </c>
+      <c r="G69" t="s">
         <v>345</v>
-      </c>
-      <c r="F69" t="s">
-        <v>346</v>
-      </c>
-      <c r="G69" t="s">
-        <v>347</v>
       </c>
       <c r="H69">
         <v>85</v>
       </c>
       <c r="I69" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="J69" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="70" spans="4:11" x14ac:dyDescent="0.25">
@@ -5688,25 +5886,25 @@
         <v>72</v>
       </c>
       <c r="E70" t="s">
+        <v>348</v>
+      </c>
+      <c r="F70" t="s">
+        <v>349</v>
+      </c>
+      <c r="G70" t="s">
         <v>350</v>
-      </c>
-      <c r="F70" t="s">
-        <v>351</v>
-      </c>
-      <c r="G70" t="s">
-        <v>352</v>
       </c>
       <c r="H70">
         <v>86</v>
       </c>
       <c r="I70" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J70" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="K70" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="71" spans="4:11" x14ac:dyDescent="0.25">
@@ -5714,22 +5912,22 @@
         <v>-72</v>
       </c>
       <c r="E71" t="s">
+        <v>354</v>
+      </c>
+      <c r="F71" t="s">
+        <v>355</v>
+      </c>
+      <c r="G71" t="s">
         <v>356</v>
-      </c>
-      <c r="F71" t="s">
-        <v>357</v>
-      </c>
-      <c r="G71" t="s">
-        <v>358</v>
       </c>
       <c r="H71">
         <v>87</v>
       </c>
       <c r="I71" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="J71" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="72" spans="4:11" x14ac:dyDescent="0.25">
@@ -5737,25 +5935,25 @@
         <v>73</v>
       </c>
       <c r="E72" t="s">
+        <v>359</v>
+      </c>
+      <c r="F72" t="s">
+        <v>360</v>
+      </c>
+      <c r="G72" t="s">
         <v>361</v>
-      </c>
-      <c r="F72" t="s">
-        <v>362</v>
-      </c>
-      <c r="G72" t="s">
-        <v>363</v>
       </c>
       <c r="H72">
         <v>88</v>
       </c>
       <c r="I72" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="J72" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="K72" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="73" spans="4:11" x14ac:dyDescent="0.25">
@@ -5763,25 +5961,25 @@
         <v>74</v>
       </c>
       <c r="E73" t="s">
+        <v>365</v>
+      </c>
+      <c r="F73" t="s">
+        <v>366</v>
+      </c>
+      <c r="G73" t="s">
         <v>367</v>
-      </c>
-      <c r="F73" t="s">
-        <v>368</v>
-      </c>
-      <c r="G73" t="s">
-        <v>369</v>
       </c>
       <c r="H73">
         <v>89</v>
       </c>
       <c r="I73" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="J73" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K73" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="74" spans="4:11" x14ac:dyDescent="0.25">
@@ -5789,22 +5987,22 @@
         <v>-74</v>
       </c>
       <c r="E74" t="s">
+        <v>371</v>
+      </c>
+      <c r="F74" t="s">
+        <v>372</v>
+      </c>
+      <c r="G74" t="s">
         <v>373</v>
-      </c>
-      <c r="F74" t="s">
-        <v>374</v>
-      </c>
-      <c r="G74" t="s">
-        <v>375</v>
       </c>
       <c r="H74">
         <v>90</v>
       </c>
       <c r="I74" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="J74" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="75" spans="4:11" x14ac:dyDescent="0.25">
@@ -5812,25 +6010,25 @@
         <v>75</v>
       </c>
       <c r="E75" t="s">
+        <v>376</v>
+      </c>
+      <c r="F75" t="s">
+        <v>377</v>
+      </c>
+      <c r="G75" t="s">
         <v>378</v>
-      </c>
-      <c r="F75" t="s">
-        <v>379</v>
-      </c>
-      <c r="G75" t="s">
-        <v>380</v>
       </c>
       <c r="H75">
         <v>91</v>
       </c>
       <c r="I75" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J75" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="K75" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="76" spans="4:11" x14ac:dyDescent="0.25">
@@ -5838,22 +6036,22 @@
         <v>-75</v>
       </c>
       <c r="E76" t="s">
+        <v>382</v>
+      </c>
+      <c r="F76" t="s">
+        <v>383</v>
+      </c>
+      <c r="G76" t="s">
         <v>384</v>
-      </c>
-      <c r="F76" t="s">
-        <v>385</v>
-      </c>
-      <c r="G76" t="s">
-        <v>386</v>
       </c>
       <c r="H76">
         <v>92</v>
       </c>
       <c r="I76" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J76" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="77" spans="4:11" x14ac:dyDescent="0.25">
@@ -5861,25 +6059,25 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>387</v>
+      </c>
+      <c r="F77" t="s">
+        <v>388</v>
+      </c>
+      <c r="G77" t="s">
         <v>389</v>
-      </c>
-      <c r="F77" t="s">
-        <v>390</v>
-      </c>
-      <c r="G77" t="s">
-        <v>391</v>
       </c>
       <c r="H77">
         <v>93</v>
       </c>
       <c r="I77" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="J77" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K77" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="78" spans="4:11" x14ac:dyDescent="0.25">
@@ -5887,22 +6085,22 @@
         <v>-76</v>
       </c>
       <c r="E78" t="s">
+        <v>393</v>
+      </c>
+      <c r="F78" t="s">
+        <v>394</v>
+      </c>
+      <c r="G78" t="s">
         <v>395</v>
-      </c>
-      <c r="F78" t="s">
-        <v>396</v>
-      </c>
-      <c r="G78" t="s">
-        <v>397</v>
       </c>
       <c r="H78">
         <v>94</v>
       </c>
       <c r="I78" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J78" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="79" spans="4:11" x14ac:dyDescent="0.25">
@@ -5910,25 +6108,25 @@
         <v>77</v>
       </c>
       <c r="E79" t="s">
+        <v>398</v>
+      </c>
+      <c r="F79" t="s">
+        <v>399</v>
+      </c>
+      <c r="G79" t="s">
         <v>400</v>
-      </c>
-      <c r="F79" t="s">
-        <v>401</v>
-      </c>
-      <c r="G79" t="s">
-        <v>402</v>
       </c>
       <c r="H79">
         <v>95</v>
       </c>
       <c r="I79" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J79" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="K79" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="80" spans="4:11" x14ac:dyDescent="0.25">
@@ -5936,25 +6134,25 @@
         <v>81</v>
       </c>
       <c r="E80" t="s">
+        <v>404</v>
+      </c>
+      <c r="F80" t="s">
+        <v>405</v>
+      </c>
+      <c r="G80" t="s">
         <v>406</v>
-      </c>
-      <c r="F80" t="s">
-        <v>407</v>
-      </c>
-      <c r="G80" t="s">
-        <v>408</v>
       </c>
       <c r="H80">
         <v>96</v>
       </c>
       <c r="I80" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="J80" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="K80" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="81" spans="4:11" x14ac:dyDescent="0.25">
@@ -5962,22 +6160,22 @@
         <v>-81</v>
       </c>
       <c r="E81" t="s">
+        <v>410</v>
+      </c>
+      <c r="F81" t="s">
+        <v>411</v>
+      </c>
+      <c r="G81" t="s">
         <v>412</v>
-      </c>
-      <c r="F81" t="s">
-        <v>413</v>
-      </c>
-      <c r="G81" t="s">
-        <v>414</v>
       </c>
       <c r="H81">
         <v>97</v>
       </c>
       <c r="I81" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="J81" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="82" spans="4:11" x14ac:dyDescent="0.25">
@@ -5985,25 +6183,25 @@
         <v>82</v>
       </c>
       <c r="E82" t="s">
+        <v>415</v>
+      </c>
+      <c r="F82" t="s">
+        <v>416</v>
+      </c>
+      <c r="G82" t="s">
         <v>417</v>
-      </c>
-      <c r="F82" t="s">
-        <v>418</v>
-      </c>
-      <c r="G82" t="s">
-        <v>419</v>
       </c>
       <c r="H82">
         <v>98</v>
       </c>
       <c r="I82" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="J82" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="K82" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="83" spans="4:11" x14ac:dyDescent="0.25">
@@ -6011,22 +6209,22 @@
         <v>-82</v>
       </c>
       <c r="E83" t="s">
+        <v>421</v>
+      </c>
+      <c r="F83" t="s">
+        <v>422</v>
+      </c>
+      <c r="G83" t="s">
         <v>423</v>
-      </c>
-      <c r="F83" t="s">
-        <v>424</v>
-      </c>
-      <c r="G83" t="s">
-        <v>425</v>
       </c>
       <c r="H83">
         <v>99</v>
       </c>
       <c r="I83" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="J83" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="84" spans="4:11" x14ac:dyDescent="0.25">
@@ -6034,25 +6232,25 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>426</v>
+      </c>
+      <c r="F84" t="s">
+        <v>427</v>
+      </c>
+      <c r="G84" t="s">
         <v>428</v>
-      </c>
-      <c r="F84" t="s">
-        <v>429</v>
-      </c>
-      <c r="G84" t="s">
-        <v>430</v>
       </c>
       <c r="H84">
         <v>100</v>
       </c>
       <c r="I84" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="J84" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="K84" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="85" spans="4:11" x14ac:dyDescent="0.25">
@@ -6060,25 +6258,25 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>432</v>
+      </c>
+      <c r="F85" t="s">
+        <v>433</v>
+      </c>
+      <c r="G85" t="s">
         <v>434</v>
-      </c>
-      <c r="F85" t="s">
-        <v>435</v>
-      </c>
-      <c r="G85" t="s">
-        <v>436</v>
       </c>
       <c r="H85">
         <v>101</v>
       </c>
       <c r="I85" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J85" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="K85" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="86" spans="4:11" x14ac:dyDescent="0.25">
@@ -6086,22 +6284,22 @@
         <v>-84</v>
       </c>
       <c r="E86" t="s">
+        <v>438</v>
+      </c>
+      <c r="F86" t="s">
+        <v>439</v>
+      </c>
+      <c r="G86" t="s">
         <v>440</v>
-      </c>
-      <c r="F86" t="s">
-        <v>441</v>
-      </c>
-      <c r="G86" t="s">
-        <v>442</v>
       </c>
       <c r="H86">
         <v>102</v>
       </c>
       <c r="I86" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="J86" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="87" spans="4:11" x14ac:dyDescent="0.25">
@@ -6109,25 +6307,25 @@
         <v>85</v>
       </c>
       <c r="E87" t="s">
+        <v>443</v>
+      </c>
+      <c r="F87" t="s">
+        <v>444</v>
+      </c>
+      <c r="G87" t="s">
         <v>445</v>
-      </c>
-      <c r="F87" t="s">
-        <v>446</v>
-      </c>
-      <c r="G87" t="s">
-        <v>447</v>
       </c>
       <c r="H87">
         <v>103</v>
       </c>
       <c r="I87" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="J87" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="K87" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="88" spans="4:11" x14ac:dyDescent="0.25">
@@ -6135,22 +6333,22 @@
         <v>-85</v>
       </c>
       <c r="E88" t="s">
+        <v>449</v>
+      </c>
+      <c r="F88" t="s">
+        <v>450</v>
+      </c>
+      <c r="G88" t="s">
         <v>451</v>
-      </c>
-      <c r="F88" t="s">
-        <v>452</v>
-      </c>
-      <c r="G88" t="s">
-        <v>453</v>
       </c>
       <c r="H88">
         <v>104</v>
       </c>
       <c r="I88" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="J88" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="89" spans="4:11" x14ac:dyDescent="0.25">
@@ -6158,25 +6356,25 @@
         <v>86</v>
       </c>
       <c r="E89" t="s">
+        <v>454</v>
+      </c>
+      <c r="F89" t="s">
+        <v>455</v>
+      </c>
+      <c r="G89" t="s">
         <v>456</v>
-      </c>
-      <c r="F89" t="s">
-        <v>457</v>
-      </c>
-      <c r="G89" t="s">
-        <v>458</v>
       </c>
       <c r="H89">
         <v>105</v>
       </c>
       <c r="I89" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="J89" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="K89" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="90" spans="4:11" x14ac:dyDescent="0.25">
@@ -6184,22 +6382,22 @@
         <v>-86</v>
       </c>
       <c r="E90" t="s">
+        <v>460</v>
+      </c>
+      <c r="F90" t="s">
+        <v>461</v>
+      </c>
+      <c r="G90" t="s">
         <v>462</v>
-      </c>
-      <c r="F90" t="s">
-        <v>463</v>
-      </c>
-      <c r="G90" t="s">
-        <v>464</v>
       </c>
       <c r="H90">
         <v>106</v>
       </c>
       <c r="I90" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="J90" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="91" spans="4:11" x14ac:dyDescent="0.25">
@@ -6207,25 +6405,25 @@
         <v>87</v>
       </c>
       <c r="E91" t="s">
+        <v>465</v>
+      </c>
+      <c r="F91" t="s">
+        <v>466</v>
+      </c>
+      <c r="G91" t="s">
         <v>467</v>
-      </c>
-      <c r="F91" t="s">
-        <v>468</v>
-      </c>
-      <c r="G91" t="s">
-        <v>469</v>
       </c>
       <c r="H91">
         <v>107</v>
       </c>
       <c r="I91" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="J91" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="K91" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="92" spans="4:11" x14ac:dyDescent="0.25">
@@ -6233,25 +6431,25 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>471</v>
+      </c>
+      <c r="F92" t="s">
+        <v>472</v>
+      </c>
+      <c r="G92" t="s">
         <v>473</v>
-      </c>
-      <c r="F92" t="s">
-        <v>474</v>
-      </c>
-      <c r="G92" t="s">
-        <v>475</v>
       </c>
       <c r="H92">
         <v>108</v>
       </c>
       <c r="I92" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="J92" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="K92" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>

--- a/contents/moundofmusic/241010_tutor_compose/template/config.xlsx
+++ b/contents/moundofmusic/241010_tutor_compose/template/config.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\self\git\elifgames\contents\moundofmusic\241010_tutor_compose\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D002C1-977B-4D3A-89A9-2EAC9BEC1ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DF39BB-207D-408F-99EF-71B6A984A95E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="note.csv" sheetId="2" r:id="rId1"/>
     <sheet name="config" sheetId="3" r:id="rId2"/>
-    <sheet name="data" sheetId="4" r:id="rId3"/>
+    <sheet name="config中文" sheetId="5" r:id="rId3"/>
+    <sheet name="data" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="536">
   <si>
     <t>la</t>
   </si>
@@ -1597,6 +1598,98 @@
   </si>
   <si>
     <t>音高key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pitch Key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scale Key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scale Value in game</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Outside the game's pitch range</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chev System</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Italiano System</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>German Solmization</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIDI Note Number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scale</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scale Offset</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Based on Solfège</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scientific Pitch Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Based on Note Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Italiano System</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phrase</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lyrics</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Octave Offset</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Output Pitch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timing configuration</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Output Timing Points</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2185,7 +2278,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2579,6 +2672,1514 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" customWidth="1"/>
+    <col min="7" max="7" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.81640625" customWidth="1"/>
+    <col min="14" max="14" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.1796875" style="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B2">
+        <f>VLOOKUP(B1,data!A:B,2,)-1</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <f>INDEX(data!D:D,MATCH(D3,data!G:G,)+$B$2+G3*12)</f>
+        <v>51</v>
+      </c>
+      <c r="I3" t="b">
+        <f>IFERROR(MATCH(H3,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <f>INDEX(data!D:D,MATCH(K3,data!J:J,) + N3*12)</f>
+        <v>51</v>
+      </c>
+      <c r="P3" t="b">
+        <f>IFERROR(MATCH(O3,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="R3" s="8">
+        <v>8.2989999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="H4">
+        <f>INDEX(data!D:D,MATCH(D4,data!G:G,)+$B$2+G4*12)</f>
+        <v>51</v>
+      </c>
+      <c r="I4" t="b">
+        <f>IFERROR(MATCH(H4,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="O4">
+        <f>INDEX(data!D:D,MATCH(K4,data!J:J,))</f>
+        <v>51</v>
+      </c>
+      <c r="P4" t="b">
+        <f>IFERROR(MATCH(O4,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="R4" s="8">
+        <v>8.8079999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="H5">
+        <f>INDEX(data!D:D,MATCH(D5,data!G:G,)+$B$2+G5*12)</f>
+        <v>55</v>
+      </c>
+      <c r="I5" t="b">
+        <f>IFERROR(MATCH(H5,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="O5">
+        <f>INDEX(data!D:D,MATCH(K5,data!J:J,))</f>
+        <v>55</v>
+      </c>
+      <c r="P5" t="b">
+        <f>IFERROR(MATCH(O5,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="R5" s="8">
+        <v>9.3079999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="H6">
+        <f>INDEX(data!D:D,MATCH(D6,data!G:G,)+$B$2+G6*12)</f>
+        <v>55</v>
+      </c>
+      <c r="I6" t="b">
+        <f>IFERROR(MATCH(H6,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="O6">
+        <f>INDEX(data!D:D,MATCH(K6,data!J:J,))</f>
+        <v>55</v>
+      </c>
+      <c r="P6" t="b">
+        <f>IFERROR(MATCH(O6,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="R6" s="8">
+        <v>9.8079999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="H7">
+        <f>INDEX(data!D:D,MATCH(D7,data!G:G,)+$B$2+G7*12)</f>
+        <v>56</v>
+      </c>
+      <c r="I7" t="b">
+        <f>IFERROR(MATCH(H7,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="O7">
+        <f>INDEX(data!D:D,MATCH(K7,data!J:J,))</f>
+        <v>56</v>
+      </c>
+      <c r="P7" t="b">
+        <f>IFERROR(MATCH(O7,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="R7" s="8">
+        <v>10.308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="H8">
+        <f>INDEX(data!D:D,MATCH(D8,data!G:G,)+$B$2+G8*12)</f>
+        <v>54</v>
+      </c>
+      <c r="I8" t="b">
+        <f>IFERROR(MATCH(H8,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="O8">
+        <f>INDEX(data!D:D,MATCH(K8,data!J:J,))</f>
+        <v>54</v>
+      </c>
+      <c r="P8" t="b">
+        <f>IFERROR(MATCH(O8,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="R8" s="8">
+        <v>10.808</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="H9">
+        <f>INDEX(data!D:D,MATCH(D9,data!G:G,)+$B$2+G9*12)</f>
+        <v>55</v>
+      </c>
+      <c r="I9" t="b">
+        <f>IFERROR(MATCH(H9,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="O9">
+        <f>INDEX(data!D:D,MATCH(K9,data!J:J,))</f>
+        <v>55</v>
+      </c>
+      <c r="P9" t="b">
+        <f>IFERROR(MATCH(O9,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="R9" s="8">
+        <v>11.266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="H10">
+        <f>INDEX(data!D:D,MATCH(D10,data!G:G,)+$B$2+G10*12)</f>
+        <v>53</v>
+      </c>
+      <c r="I10" t="b">
+        <f>IFERROR(MATCH(H10,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="O10">
+        <f>INDEX(data!D:D,MATCH(K10,data!J:J,))</f>
+        <v>53</v>
+      </c>
+      <c r="P10" t="b">
+        <f>IFERROR(MATCH(O10,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="R10" s="8">
+        <v>11.766</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D11" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <f>INDEX(data!D:D,MATCH(D11,data!G:G,)+$B$2+G11*12)</f>
+        <v>54</v>
+      </c>
+      <c r="I11" t="b">
+        <f>IFERROR(MATCH(H11,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="O11">
+        <f>INDEX(data!D:D,MATCH(K11,data!J:J,))</f>
+        <v>54</v>
+      </c>
+      <c r="P11" t="b">
+        <f>IFERROR(MATCH(O11,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="R11" s="8">
+        <v>12.202999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D12" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="H12">
+        <f>INDEX(data!D:D,MATCH(D12,data!G:G,)+$B$2+G12*12)</f>
+        <v>54</v>
+      </c>
+      <c r="I12" t="b">
+        <f>IFERROR(MATCH(H12,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="O12">
+        <f>INDEX(data!D:D,MATCH(K12,data!J:J,))</f>
+        <v>54</v>
+      </c>
+      <c r="P12" t="b">
+        <f>IFERROR(MATCH(O12,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="R12" s="8">
+        <v>12.702999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D13" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="H13">
+        <f>INDEX(data!D:D,MATCH(D13,data!G:G,)+$B$2+G13*12)</f>
+        <v>53</v>
+      </c>
+      <c r="I13" t="b">
+        <f>IFERROR(MATCH(H13,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="O13">
+        <f>INDEX(data!D:D,MATCH(K13,data!J:J,))</f>
+        <v>53</v>
+      </c>
+      <c r="P13" t="b">
+        <f>IFERROR(MATCH(O13,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="R13" s="8">
+        <v>13.162000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D14" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="H14">
+        <f>INDEX(data!D:D,MATCH(D14,data!G:G,)+$B$2+G14*12)</f>
+        <v>53</v>
+      </c>
+      <c r="I14" t="b">
+        <f>IFERROR(MATCH(H14,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="O14">
+        <f>INDEX(data!D:D,MATCH(K14,data!J:J,))</f>
+        <v>53</v>
+      </c>
+      <c r="P14" t="b">
+        <f>IFERROR(MATCH(O14,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="R14" s="8">
+        <v>13.662000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D15" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H15">
+        <f>INDEX(data!D:D,MATCH(D15,data!G:G,)+$B$2+G15*12)</f>
+        <v>52</v>
+      </c>
+      <c r="I15" t="b">
+        <f>IFERROR(MATCH(H15,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="O15">
+        <f>INDEX(data!D:D,MATCH(K15,data!J:J,))</f>
+        <v>52</v>
+      </c>
+      <c r="P15" t="b">
+        <f>IFERROR(MATCH(O15,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="R15" s="8">
+        <v>14.12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D16" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H16">
+        <f>INDEX(data!D:D,MATCH(D16,data!G:G,)+$B$2+G16*12)</f>
+        <v>52</v>
+      </c>
+      <c r="I16" t="b">
+        <f>IFERROR(MATCH(H16,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="O16">
+        <f>INDEX(data!D:D,MATCH(K16,data!J:J,))</f>
+        <v>52</v>
+      </c>
+      <c r="P16" t="b">
+        <f>IFERROR(MATCH(O16,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="R16" s="8">
+        <v>14.62</v>
+      </c>
+    </row>
+    <row r="17" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D17" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="H17">
+        <f>INDEX(data!D:D,MATCH(D17,data!G:G,)+$B$2+G17*12)</f>
+        <v>51</v>
+      </c>
+      <c r="I17" t="b">
+        <f>IFERROR(MATCH(H17,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="O17">
+        <f>INDEX(data!D:D,MATCH(K17,data!J:J,))</f>
+        <v>51</v>
+      </c>
+      <c r="P17" t="b">
+        <f>IFERROR(MATCH(O17,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="R17" s="8">
+        <v>15.12</v>
+      </c>
+    </row>
+    <row r="18" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D18" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>-1</v>
+      </c>
+      <c r="H18">
+        <f>INDEX(data!D:D,MATCH(D18,data!G:G,)+$B$2+G18*12)</f>
+        <v>41</v>
+      </c>
+      <c r="I18" t="b">
+        <f>IFERROR(MATCH(H18,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="O18">
+        <f>INDEX(data!D:D,MATCH(K18,data!J:J,))</f>
+        <v>51</v>
+      </c>
+      <c r="P18" t="b">
+        <f>IFERROR(MATCH(O18,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="R18" s="8">
+        <v>16.125</v>
+      </c>
+    </row>
+    <row r="19" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D19" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="G19">
+        <v>-1</v>
+      </c>
+      <c r="H19">
+        <f>INDEX(data!D:D,MATCH(D19,data!G:G,)+$B$2+G19*12)</f>
+        <v>41</v>
+      </c>
+      <c r="I19" t="b">
+        <f>IFERROR(MATCH(H19,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="O19">
+        <f>INDEX(data!D:D,MATCH(K19,data!J:J,))</f>
+        <v>51</v>
+      </c>
+      <c r="P19" t="b">
+        <f>IFERROR(MATCH(O19,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="R19" s="8">
+        <v>16.582999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D20" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G20">
+        <v>-1</v>
+      </c>
+      <c r="H20">
+        <f>INDEX(data!D:D,MATCH(D20,data!G:G,)+$B$2+G20*12)</f>
+        <v>45</v>
+      </c>
+      <c r="I20" t="b">
+        <f>IFERROR(MATCH(H20,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="O20">
+        <f>INDEX(data!D:D,MATCH(K20,data!J:J,))</f>
+        <v>55</v>
+      </c>
+      <c r="P20" t="b">
+        <f>IFERROR(MATCH(O20,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="R20" s="8">
+        <v>17.042000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D21" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G21">
+        <v>-1</v>
+      </c>
+      <c r="H21">
+        <f>INDEX(data!D:D,MATCH(D21,data!G:G,)+$B$2+G21*12)</f>
+        <v>45</v>
+      </c>
+      <c r="I21" t="b">
+        <f>IFERROR(MATCH(H21,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="O21">
+        <f>INDEX(data!D:D,MATCH(K21,data!J:J,))</f>
+        <v>55</v>
+      </c>
+      <c r="P21" t="b">
+        <f>IFERROR(MATCH(O21,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="R21" s="8">
+        <v>17.582999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D22" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G22">
+        <v>-1</v>
+      </c>
+      <c r="H22">
+        <f>INDEX(data!D:D,MATCH(D22,data!G:G,)+$B$2+G22*12)</f>
+        <v>46</v>
+      </c>
+      <c r="I22" t="b">
+        <f>IFERROR(MATCH(H22,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="O22">
+        <f>INDEX(data!D:D,MATCH(K22,data!J:J,))</f>
+        <v>56</v>
+      </c>
+      <c r="P22" t="b">
+        <f>IFERROR(MATCH(O22,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="R22" s="8">
+        <v>18.082999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D23" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="G23">
+        <v>-1</v>
+      </c>
+      <c r="H23">
+        <f>INDEX(data!D:D,MATCH(D23,data!G:G,)+$B$2+G23*12)</f>
+        <v>44</v>
+      </c>
+      <c r="I23" t="b">
+        <f>IFERROR(MATCH(H23,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="O23">
+        <f>INDEX(data!D:D,MATCH(K23,data!J:J,))</f>
+        <v>54</v>
+      </c>
+      <c r="P23" t="b">
+        <f>IFERROR(MATCH(O23,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="R23" s="8">
+        <v>18.542000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D24" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G24">
+        <v>-1</v>
+      </c>
+      <c r="H24">
+        <f>INDEX(data!D:D,MATCH(D24,data!G:G,)+$B$2+G24*12)</f>
+        <v>45</v>
+      </c>
+      <c r="I24" t="b">
+        <f>IFERROR(MATCH(H24,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="O24">
+        <f>INDEX(data!D:D,MATCH(K24,data!J:J,))</f>
+        <v>55</v>
+      </c>
+      <c r="P24" t="b">
+        <f>IFERROR(MATCH(O24,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="R24" s="8">
+        <v>19.042000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D25" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="G25">
+        <v>-1</v>
+      </c>
+      <c r="H25">
+        <f>INDEX(data!D:D,MATCH(D25,data!G:G,)+$B$2+G25*12)</f>
+        <v>43</v>
+      </c>
+      <c r="I25" t="b">
+        <f>IFERROR(MATCH(H25,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="O25">
+        <f>INDEX(data!D:D,MATCH(K25,data!J:J,))</f>
+        <v>53</v>
+      </c>
+      <c r="P25" t="b">
+        <f>IFERROR(MATCH(O25,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="R25" s="8">
+        <v>19.542000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D26" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <f>INDEX(data!D:D,MATCH(D26,data!G:G,)+$B$2+G26*12)</f>
+        <v>64</v>
+      </c>
+      <c r="I26" t="b">
+        <f>IFERROR(MATCH(H26,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="L26">
+        <v>4</v>
+      </c>
+      <c r="O26">
+        <f>INDEX(data!D:D,MATCH(K26,data!J:J,))</f>
+        <v>54</v>
+      </c>
+      <c r="P26" t="b">
+        <f>IFERROR(MATCH(O26,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="R26" s="8">
+        <v>19.981000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D27" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <f>INDEX(data!D:D,MATCH(D27,data!G:G,)+$B$2+G27*12)</f>
+        <v>62</v>
+      </c>
+      <c r="I27" t="b">
+        <f>IFERROR(MATCH(H27,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="O27">
+        <f>INDEX(data!D:D,MATCH(K27,data!J:J,))</f>
+        <v>52</v>
+      </c>
+      <c r="P27" t="b">
+        <f>IFERROR(MATCH(O27,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="R27" s="8">
+        <v>20.481000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D28" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <f>INDEX(data!D:D,MATCH(D28,data!G:G,)+$B$2+G28*12)</f>
+        <v>63</v>
+      </c>
+      <c r="I28" t="b">
+        <f>IFERROR(MATCH(H28,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="O28">
+        <f>INDEX(data!D:D,MATCH(K28,data!J:J,))</f>
+        <v>53</v>
+      </c>
+      <c r="P28" t="b">
+        <f>IFERROR(MATCH(O28,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="R28" s="8">
+        <v>20.939</v>
+      </c>
+    </row>
+    <row r="29" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D29" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <f>INDEX(data!D:D,MATCH(D29,data!G:G,)+$B$2+G29*12)</f>
+        <v>61</v>
+      </c>
+      <c r="I29" t="b">
+        <f>IFERROR(MATCH(H29,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="O29">
+        <f>INDEX(data!D:D,MATCH(K29,data!J:J,))</f>
+        <v>51</v>
+      </c>
+      <c r="P29" t="b">
+        <f>IFERROR(MATCH(O29,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="R29" s="8">
+        <v>21.439</v>
+      </c>
+    </row>
+    <row r="30" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D30" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <f>INDEX(data!D:D,MATCH(D30,data!G:G,)+$B$2+G30*12)</f>
+        <v>62</v>
+      </c>
+      <c r="I30" t="b">
+        <f>IFERROR(MATCH(H30,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="O30">
+        <f>INDEX(data!D:D,MATCH(K30,data!J:J,))</f>
+        <v>52</v>
+      </c>
+      <c r="P30" t="b">
+        <f>IFERROR(MATCH(O30,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="R30" s="8">
+        <v>21.939</v>
+      </c>
+    </row>
+    <row r="31" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D31" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <f>INDEX(data!D:D,MATCH(D31,data!G:G,)+$B$2+G31*12)</f>
+        <v>57</v>
+      </c>
+      <c r="I31" t="b">
+        <f>IFERROR(MATCH(H31,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="O31">
+        <f>INDEX(data!D:D,MATCH(K31,data!J:J,))</f>
+        <v>47</v>
+      </c>
+      <c r="P31" t="b">
+        <f>IFERROR(MATCH(O31,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="R31" s="8">
+        <v>22.396999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="D32" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <f>INDEX(data!D:D,MATCH(D32,data!G:G,)+$B$2+G32*12)</f>
+        <v>61</v>
+      </c>
+      <c r="I32" t="b">
+        <f>IFERROR(MATCH(H32,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="O32">
+        <f>INDEX(data!D:D,MATCH(K32,data!J:J,))</f>
+        <v>51</v>
+      </c>
+      <c r="P32" t="b">
+        <f>IFERROR(MATCH(O32,data!$D$3:$D$38,)&gt;0,"Illegal pitch, please adjust the octave offset")</f>
+        <v>1</v>
+      </c>
+      <c r="R32" s="8">
+        <v>22.939</v>
+      </c>
+    </row>
+    <row r="44" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F44" s="1"/>
+      <c r="M44" s="1"/>
+    </row>
+    <row r="45" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F45" s="1"/>
+      <c r="M45" s="1"/>
+    </row>
+    <row r="46" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F46" s="1"/>
+      <c r="M46" s="1"/>
+    </row>
+    <row r="47" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F47" s="1"/>
+      <c r="M47" s="1"/>
+    </row>
+    <row r="48" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F48" s="1"/>
+      <c r="M48" s="1"/>
+    </row>
+    <row r="49" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F49" s="1"/>
+      <c r="M49" s="1"/>
+    </row>
+    <row r="50" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F50" s="1"/>
+      <c r="M50" s="1"/>
+    </row>
+    <row r="51" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F51" s="1"/>
+      <c r="M51" s="1"/>
+    </row>
+    <row r="53" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F53" s="1"/>
+      <c r="M53" s="1"/>
+    </row>
+    <row r="55" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F55" s="1"/>
+      <c r="M55" s="1"/>
+    </row>
+    <row r="57" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F57" s="1"/>
+      <c r="M57" s="1"/>
+    </row>
+    <row r="58" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F58" s="1"/>
+      <c r="M58" s="1"/>
+    </row>
+    <row r="59" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F59" s="1"/>
+      <c r="M59" s="1"/>
+    </row>
+    <row r="60" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F60" s="1"/>
+      <c r="M60" s="1"/>
+    </row>
+    <row r="61" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="M61" s="1"/>
+    </row>
+    <row r="62" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F62" s="1"/>
+      <c r="M62" s="1"/>
+    </row>
+    <row r="64" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F64" s="1"/>
+      <c r="M64" s="1"/>
+    </row>
+    <row r="66" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F66" s="1"/>
+      <c r="M66" s="1"/>
+    </row>
+    <row r="67" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F67" s="1"/>
+      <c r="M67" s="1"/>
+    </row>
+    <row r="68" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F68" s="1"/>
+      <c r="M68" s="1"/>
+    </row>
+    <row r="69" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F69" s="1"/>
+      <c r="M69" s="1"/>
+    </row>
+    <row r="70" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F70" s="1"/>
+      <c r="M70" s="1"/>
+    </row>
+    <row r="71" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F71" s="1"/>
+      <c r="M71" s="1"/>
+    </row>
+    <row r="72" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F72" s="1"/>
+      <c r="M72" s="1"/>
+    </row>
+    <row r="73" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F73" s="1"/>
+      <c r="M73" s="1"/>
+    </row>
+    <row r="74" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F75" s="1"/>
+      <c r="M75" s="1"/>
+    </row>
+    <row r="76" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F76" s="1"/>
+      <c r="M76" s="1"/>
+    </row>
+    <row r="77" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F77" s="1"/>
+      <c r="M77" s="1"/>
+    </row>
+    <row r="79" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F79" s="1"/>
+      <c r="M79" s="1"/>
+    </row>
+    <row r="80" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F80" s="1"/>
+      <c r="M80" s="1"/>
+    </row>
+    <row r="81" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F81" s="1"/>
+      <c r="M81" s="1"/>
+    </row>
+    <row r="82" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F82" s="1"/>
+      <c r="M82" s="1"/>
+    </row>
+    <row r="84" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F84" s="1"/>
+      <c r="M84" s="1"/>
+    </row>
+    <row r="85" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F85" s="1"/>
+      <c r="M85" s="1"/>
+    </row>
+    <row r="86" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F86" s="1"/>
+      <c r="M86" s="1"/>
+    </row>
+    <row r="87" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F87" s="1"/>
+      <c r="M87" s="1"/>
+    </row>
+    <row r="88" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F88" s="1"/>
+      <c r="M88" s="1"/>
+    </row>
+    <row r="89" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F89" s="1"/>
+      <c r="M89" s="1"/>
+    </row>
+    <row r="90" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F90" s="1"/>
+      <c r="M90" s="1"/>
+    </row>
+    <row r="91" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F91" s="1"/>
+      <c r="M91" s="1"/>
+    </row>
+    <row r="92" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F92" s="1"/>
+      <c r="M92" s="1"/>
+    </row>
+    <row r="94" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F94" s="1"/>
+      <c r="M94" s="1"/>
+    </row>
+    <row r="96" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F96" s="1"/>
+      <c r="M96" s="1"/>
+    </row>
+    <row r="98" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F98" s="1"/>
+      <c r="M98" s="1"/>
+    </row>
+    <row r="99" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F99" s="1"/>
+      <c r="M99" s="1"/>
+    </row>
+    <row r="100" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F100" s="1"/>
+      <c r="M100" s="1"/>
+    </row>
+    <row r="101" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F101" s="1"/>
+      <c r="M101" s="1"/>
+    </row>
+    <row r="102" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F102" s="1"/>
+      <c r="M102" s="1"/>
+    </row>
+    <row r="104" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F104" s="1"/>
+      <c r="M104" s="1"/>
+    </row>
+    <row r="106" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F106" s="1"/>
+      <c r="M106" s="1"/>
+    </row>
+    <row r="107" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F107" s="1"/>
+      <c r="M107" s="1"/>
+    </row>
+    <row r="108" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F108" s="1"/>
+      <c r="M108" s="1"/>
+    </row>
+    <row r="109" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F109" s="1"/>
+      <c r="M109" s="1"/>
+    </row>
+    <row r="110" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F110" s="1"/>
+      <c r="M110" s="1"/>
+    </row>
+    <row r="111" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F111" s="1"/>
+      <c r="M111" s="1"/>
+    </row>
+    <row r="112" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F112" s="1"/>
+      <c r="M112" s="1"/>
+    </row>
+    <row r="113" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F113" s="1"/>
+      <c r="M113" s="1"/>
+    </row>
+    <row r="115" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F115" s="1"/>
+      <c r="M115" s="1"/>
+    </row>
+    <row r="117" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F117" s="1"/>
+      <c r="M117" s="1"/>
+    </row>
+    <row r="119" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F119" s="1"/>
+      <c r="M119" s="1"/>
+    </row>
+    <row r="120" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F120" s="1"/>
+      <c r="M120" s="1"/>
+    </row>
+    <row r="121" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D121" s="1"/>
+    </row>
+    <row r="122" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F122" s="1"/>
+      <c r="M122" s="1"/>
+    </row>
+    <row r="123" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F123" s="1"/>
+      <c r="M123" s="1"/>
+    </row>
+    <row r="125" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F125" s="1"/>
+      <c r="M125" s="1"/>
+    </row>
+    <row r="167" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F167" s="1"/>
+      <c r="M167" s="1"/>
+    </row>
+    <row r="168" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F168" s="1"/>
+      <c r="M168" s="1"/>
+    </row>
+    <row r="169" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F169" s="1"/>
+      <c r="M169" s="1"/>
+    </row>
+    <row r="170" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F170" s="1"/>
+      <c r="M170" s="1"/>
+    </row>
+    <row r="171" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F171" s="1"/>
+      <c r="M171" s="1"/>
+    </row>
+    <row r="172" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F172" s="1"/>
+      <c r="M172" s="1"/>
+    </row>
+    <row r="173" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F173" s="1"/>
+      <c r="M173" s="1"/>
+    </row>
+    <row r="174" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F174" s="1"/>
+      <c r="M174" s="1"/>
+    </row>
+    <row r="176" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F176" s="1"/>
+      <c r="M176" s="1"/>
+    </row>
+    <row r="178" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F178" s="1"/>
+      <c r="M178" s="1"/>
+    </row>
+    <row r="180" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F180" s="1"/>
+      <c r="M180" s="1"/>
+    </row>
+    <row r="181" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F181" s="1"/>
+      <c r="M181" s="1"/>
+    </row>
+    <row r="182" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F182" s="1"/>
+      <c r="M182" s="1"/>
+    </row>
+    <row r="183" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F183" s="1"/>
+      <c r="M183" s="1"/>
+    </row>
+    <row r="184" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F184" s="1"/>
+      <c r="M184" s="1"/>
+    </row>
+    <row r="186" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F186" s="1"/>
+      <c r="M186" s="1"/>
+    </row>
+    <row r="188" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F188" s="1"/>
+      <c r="M188" s="1"/>
+    </row>
+    <row r="189" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F189" s="1"/>
+      <c r="M189" s="1"/>
+    </row>
+    <row r="190" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F190" s="1"/>
+      <c r="M190" s="1"/>
+    </row>
+    <row r="191" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F191" s="1"/>
+      <c r="M191" s="1"/>
+    </row>
+    <row r="192" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F192" s="1"/>
+      <c r="M192" s="1"/>
+    </row>
+    <row r="193" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F193" s="1"/>
+      <c r="M193" s="1"/>
+    </row>
+    <row r="194" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F194" s="1"/>
+      <c r="M194" s="1"/>
+    </row>
+    <row r="195" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F195" s="1"/>
+      <c r="M195" s="1"/>
+    </row>
+    <row r="196" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D196" s="1"/>
+    </row>
+    <row r="197" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F197" s="1"/>
+      <c r="M197" s="1"/>
+    </row>
+    <row r="198" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F198" s="1"/>
+      <c r="M198" s="1"/>
+    </row>
+    <row r="199" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F199" s="1"/>
+      <c r="M199" s="1"/>
+    </row>
+    <row r="201" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F201" s="1"/>
+      <c r="M201" s="1"/>
+    </row>
+    <row r="202" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F202" s="1"/>
+      <c r="M202" s="1"/>
+    </row>
+    <row r="203" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F203" s="1"/>
+      <c r="M203" s="1"/>
+    </row>
+    <row r="204" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F204" s="1"/>
+      <c r="M204" s="1"/>
+    </row>
+    <row r="206" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F206" s="1"/>
+      <c r="M206" s="1"/>
+    </row>
+    <row r="207" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F207" s="1"/>
+      <c r="M207" s="1"/>
+    </row>
+    <row r="208" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F208" s="1"/>
+      <c r="M208" s="1"/>
+    </row>
+    <row r="209" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F209" s="1"/>
+      <c r="M209" s="1"/>
+    </row>
+    <row r="210" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F210" s="1"/>
+      <c r="M210" s="1"/>
+    </row>
+    <row r="211" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F211" s="1"/>
+      <c r="M211" s="1"/>
+    </row>
+    <row r="212" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F212" s="1"/>
+      <c r="M212" s="1"/>
+    </row>
+    <row r="213" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F213" s="1"/>
+      <c r="M213" s="1"/>
+    </row>
+    <row r="214" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F214" s="1"/>
+      <c r="M214" s="1"/>
+    </row>
+    <row r="216" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F216" s="1"/>
+      <c r="M216" s="1"/>
+    </row>
+    <row r="218" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F218" s="1"/>
+      <c r="M218" s="1"/>
+    </row>
+    <row r="220" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F220" s="1"/>
+      <c r="M220" s="1"/>
+    </row>
+    <row r="221" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F221" s="1"/>
+      <c r="M221" s="1"/>
+    </row>
+    <row r="222" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F222" s="1"/>
+      <c r="M222" s="1"/>
+    </row>
+    <row r="223" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F223" s="1"/>
+      <c r="M223" s="1"/>
+    </row>
+    <row r="224" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F224" s="1"/>
+      <c r="M224" s="1"/>
+    </row>
+    <row r="226" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F226" s="1"/>
+      <c r="M226" s="1"/>
+    </row>
+    <row r="228" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F228" s="1"/>
+      <c r="M228" s="1"/>
+    </row>
+    <row r="229" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F229" s="1"/>
+      <c r="M229" s="1"/>
+    </row>
+    <row r="230" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F230" s="1"/>
+      <c r="M230" s="1"/>
+    </row>
+    <row r="231" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F231" s="1"/>
+      <c r="M231" s="1"/>
+    </row>
+    <row r="232" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F232" s="1"/>
+      <c r="M232" s="1"/>
+    </row>
+    <row r="233" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F233" s="1"/>
+      <c r="M233" s="1"/>
+    </row>
+    <row r="234" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F234" s="1"/>
+      <c r="M234" s="1"/>
+    </row>
+    <row r="235" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F235" s="1"/>
+      <c r="M235" s="1"/>
+    </row>
+    <row r="236" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D236" s="1"/>
+    </row>
+    <row r="237" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F237" s="1"/>
+      <c r="M237" s="1"/>
+    </row>
+    <row r="239" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F239" s="1"/>
+      <c r="M239" s="1"/>
+    </row>
+    <row r="241" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F241" s="1"/>
+      <c r="M241" s="1"/>
+    </row>
+    <row r="242" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F242" s="1"/>
+      <c r="M242" s="1"/>
+    </row>
+    <row r="244" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F244" s="1"/>
+      <c r="M244" s="1"/>
+    </row>
+    <row r="245" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F245" s="1"/>
+      <c r="M245" s="1"/>
+    </row>
+    <row r="247" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F247" s="1"/>
+      <c r="M247" s="1"/>
+    </row>
+    <row r="248" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D248" s="1"/>
+      <c r="K248" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DCBD8937-8BF0-48F5-BB25-4E67F4E6526E}">
+          <x14:formula1>
+            <xm:f>data!$A$3:$A$26</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B0112C-53BC-4259-BB83-778207E390B6}">
+  <dimension ref="A1:R248"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -2665,7 +4266,7 @@
         <v>51</v>
       </c>
       <c r="I3" t="b">
-        <f>IFERROR(MATCH(H3,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(H3,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -2679,7 +4280,7 @@
         <v>51</v>
       </c>
       <c r="P3" t="b">
-        <f>IFERROR(MATCH(O3,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(O3,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="R3" s="8">
@@ -2695,7 +4296,7 @@
         <v>51</v>
       </c>
       <c r="I4" t="b">
-        <f>IFERROR(MATCH(H4,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(H4,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="K4" s="1" t="s">
@@ -2706,7 +4307,7 @@
         <v>51</v>
       </c>
       <c r="P4" t="b">
-        <f>IFERROR(MATCH(O4,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(O4,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="R4" s="8">
@@ -2722,7 +4323,7 @@
         <v>55</v>
       </c>
       <c r="I5" t="b">
-        <f>IFERROR(MATCH(H5,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(H5,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="K5" s="1" t="s">
@@ -2733,7 +4334,7 @@
         <v>55</v>
       </c>
       <c r="P5" t="b">
-        <f>IFERROR(MATCH(O5,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(O5,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="R5" s="8">
@@ -2749,7 +4350,7 @@
         <v>55</v>
       </c>
       <c r="I6" t="b">
-        <f>IFERROR(MATCH(H6,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(H6,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="K6" s="1" t="s">
@@ -2760,7 +4361,7 @@
         <v>55</v>
       </c>
       <c r="P6" t="b">
-        <f>IFERROR(MATCH(O6,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(O6,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="R6" s="8">
@@ -2776,7 +4377,7 @@
         <v>56</v>
       </c>
       <c r="I7" t="b">
-        <f>IFERROR(MATCH(H7,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(H7,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="K7" s="1" t="s">
@@ -2787,7 +4388,7 @@
         <v>56</v>
       </c>
       <c r="P7" t="b">
-        <f>IFERROR(MATCH(O7,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(O7,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="R7" s="8">
@@ -2803,7 +4404,7 @@
         <v>54</v>
       </c>
       <c r="I8" t="b">
-        <f>IFERROR(MATCH(H8,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(H8,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="K8" s="1" t="s">
@@ -2814,7 +4415,7 @@
         <v>54</v>
       </c>
       <c r="P8" t="b">
-        <f>IFERROR(MATCH(O8,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(O8,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="R8" s="8">
@@ -2830,7 +4431,7 @@
         <v>55</v>
       </c>
       <c r="I9" t="b">
-        <f>IFERROR(MATCH(H9,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(H9,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="K9" s="1" t="s">
@@ -2841,7 +4442,7 @@
         <v>55</v>
       </c>
       <c r="P9" t="b">
-        <f>IFERROR(MATCH(O9,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(O9,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="R9" s="8">
@@ -2857,7 +4458,7 @@
         <v>53</v>
       </c>
       <c r="I10" t="b">
-        <f>IFERROR(MATCH(H10,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(H10,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="K10" s="1" t="s">
@@ -2868,7 +4469,7 @@
         <v>53</v>
       </c>
       <c r="P10" t="b">
-        <f>IFERROR(MATCH(O10,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(O10,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="R10" s="8">
@@ -2887,7 +4488,7 @@
         <v>54</v>
       </c>
       <c r="I11" t="b">
-        <f>IFERROR(MATCH(H11,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(H11,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="K11" s="1" t="s">
@@ -2901,7 +4502,7 @@
         <v>54</v>
       </c>
       <c r="P11" t="b">
-        <f>IFERROR(MATCH(O11,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(O11,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="R11" s="8">
@@ -2917,7 +4518,7 @@
         <v>54</v>
       </c>
       <c r="I12" t="b">
-        <f>IFERROR(MATCH(H12,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(H12,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="K12" s="1" t="s">
@@ -2928,7 +4529,7 @@
         <v>54</v>
       </c>
       <c r="P12" t="b">
-        <f>IFERROR(MATCH(O12,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(O12,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="R12" s="8">
@@ -2944,7 +4545,7 @@
         <v>53</v>
       </c>
       <c r="I13" t="b">
-        <f>IFERROR(MATCH(H13,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(H13,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="K13" s="1" t="s">
@@ -2955,7 +4556,7 @@
         <v>53</v>
       </c>
       <c r="P13" t="b">
-        <f>IFERROR(MATCH(O13,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(O13,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="R13" s="8">
@@ -2971,7 +4572,7 @@
         <v>53</v>
       </c>
       <c r="I14" t="b">
-        <f>IFERROR(MATCH(H14,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(H14,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="K14" s="1" t="s">
@@ -2982,7 +4583,7 @@
         <v>53</v>
       </c>
       <c r="P14" t="b">
-        <f>IFERROR(MATCH(O14,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(O14,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="R14" s="8">
@@ -2998,7 +4599,7 @@
         <v>52</v>
       </c>
       <c r="I15" t="b">
-        <f>IFERROR(MATCH(H15,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(H15,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="K15" s="1" t="s">
@@ -3009,7 +4610,7 @@
         <v>52</v>
       </c>
       <c r="P15" t="b">
-        <f>IFERROR(MATCH(O15,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(O15,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="R15" s="8">
@@ -3025,7 +4626,7 @@
         <v>52</v>
       </c>
       <c r="I16" t="b">
-        <f>IFERROR(MATCH(H16,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(H16,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="K16" s="1" t="s">
@@ -3036,7 +4637,7 @@
         <v>52</v>
       </c>
       <c r="P16" t="b">
-        <f>IFERROR(MATCH(O16,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(O16,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="R16" s="8">
@@ -3052,7 +4653,7 @@
         <v>51</v>
       </c>
       <c r="I17" t="b">
-        <f>IFERROR(MATCH(H17,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(H17,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="K17" s="1" t="s">
@@ -3063,7 +4664,7 @@
         <v>51</v>
       </c>
       <c r="P17" t="b">
-        <f>IFERROR(MATCH(O17,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(O17,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="R17" s="8">
@@ -3085,7 +4686,7 @@
         <v>41</v>
       </c>
       <c r="I18" t="b">
-        <f>IFERROR(MATCH(H18,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(H18,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="K18" s="1" t="s">
@@ -3099,7 +4700,7 @@
         <v>51</v>
       </c>
       <c r="P18" t="b">
-        <f>IFERROR(MATCH(O18,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(O18,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="R18" s="8">
@@ -3118,7 +4719,7 @@
         <v>41</v>
       </c>
       <c r="I19" t="b">
-        <f>IFERROR(MATCH(H19,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(H19,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="K19" s="1" t="s">
@@ -3129,7 +4730,7 @@
         <v>51</v>
       </c>
       <c r="P19" t="b">
-        <f>IFERROR(MATCH(O19,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(O19,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="R19" s="8">
@@ -3148,7 +4749,7 @@
         <v>45</v>
       </c>
       <c r="I20" t="b">
-        <f>IFERROR(MATCH(H20,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(H20,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="K20" s="1" t="s">
@@ -3159,7 +4760,7 @@
         <v>55</v>
       </c>
       <c r="P20" t="b">
-        <f>IFERROR(MATCH(O20,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(O20,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="R20" s="8">
@@ -3178,7 +4779,7 @@
         <v>45</v>
       </c>
       <c r="I21" t="b">
-        <f>IFERROR(MATCH(H21,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(H21,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="K21" s="1" t="s">
@@ -3189,7 +4790,7 @@
         <v>55</v>
       </c>
       <c r="P21" t="b">
-        <f>IFERROR(MATCH(O21,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(O21,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="R21" s="8">
@@ -3208,7 +4809,7 @@
         <v>46</v>
       </c>
       <c r="I22" t="b">
-        <f>IFERROR(MATCH(H22,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(H22,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="K22" s="1" t="s">
@@ -3219,7 +4820,7 @@
         <v>56</v>
       </c>
       <c r="P22" t="b">
-        <f>IFERROR(MATCH(O22,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(O22,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="R22" s="8">
@@ -3238,7 +4839,7 @@
         <v>44</v>
       </c>
       <c r="I23" t="b">
-        <f>IFERROR(MATCH(H23,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(H23,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="K23" s="1" t="s">
@@ -3249,7 +4850,7 @@
         <v>54</v>
       </c>
       <c r="P23" t="b">
-        <f>IFERROR(MATCH(O23,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(O23,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="R23" s="8">
@@ -3268,7 +4869,7 @@
         <v>45</v>
       </c>
       <c r="I24" t="b">
-        <f>IFERROR(MATCH(H24,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(H24,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="K24" s="1" t="s">
@@ -3279,7 +4880,7 @@
         <v>55</v>
       </c>
       <c r="P24" t="b">
-        <f>IFERROR(MATCH(O24,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(O24,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="R24" s="8">
@@ -3298,7 +4899,7 @@
         <v>43</v>
       </c>
       <c r="I25" t="b">
-        <f>IFERROR(MATCH(H25,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(H25,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="K25" s="1" t="s">
@@ -3309,7 +4910,7 @@
         <v>53</v>
       </c>
       <c r="P25" t="b">
-        <f>IFERROR(MATCH(O25,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(O25,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="R25" s="8">
@@ -3331,7 +4932,7 @@
         <v>64</v>
       </c>
       <c r="I26" t="b">
-        <f>IFERROR(MATCH(H26,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(H26,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="K26" s="1" t="s">
@@ -3345,7 +4946,7 @@
         <v>54</v>
       </c>
       <c r="P26" t="b">
-        <f>IFERROR(MATCH(O26,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(O26,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="R26" s="8">
@@ -3364,7 +4965,7 @@
         <v>62</v>
       </c>
       <c r="I27" t="b">
-        <f>IFERROR(MATCH(H27,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(H27,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="K27" s="1" t="s">
@@ -3375,7 +4976,7 @@
         <v>52</v>
       </c>
       <c r="P27" t="b">
-        <f>IFERROR(MATCH(O27,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(O27,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="R27" s="8">
@@ -3394,7 +4995,7 @@
         <v>63</v>
       </c>
       <c r="I28" t="b">
-        <f>IFERROR(MATCH(H28,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(H28,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="K28" s="1" t="s">
@@ -3405,7 +5006,7 @@
         <v>53</v>
       </c>
       <c r="P28" t="b">
-        <f>IFERROR(MATCH(O28,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(O28,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="R28" s="8">
@@ -3424,7 +5025,7 @@
         <v>61</v>
       </c>
       <c r="I29" t="b">
-        <f>IFERROR(MATCH(H29,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(H29,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="K29" s="1" t="s">
@@ -3435,7 +5036,7 @@
         <v>51</v>
       </c>
       <c r="P29" t="b">
-        <f>IFERROR(MATCH(O29,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(O29,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="R29" s="8">
@@ -3454,7 +5055,7 @@
         <v>62</v>
       </c>
       <c r="I30" t="b">
-        <f>IFERROR(MATCH(H30,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(H30,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="K30" s="1" t="s">
@@ -3465,7 +5066,7 @@
         <v>52</v>
       </c>
       <c r="P30" t="b">
-        <f>IFERROR(MATCH(O30,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(O30,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="R30" s="8">
@@ -3484,7 +5085,7 @@
         <v>57</v>
       </c>
       <c r="I31" t="b">
-        <f>IFERROR(MATCH(H31,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(H31,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="K31" s="1" t="s">
@@ -3495,7 +5096,7 @@
         <v>47</v>
       </c>
       <c r="P31" t="b">
-        <f>IFERROR(MATCH(O31,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(O31,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="R31" s="8">
@@ -3514,7 +5115,7 @@
         <v>61</v>
       </c>
       <c r="I32" t="b">
-        <f>IFERROR(MATCH(H32,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(H32,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="K32" s="1" t="s">
@@ -3525,7 +5126,7 @@
         <v>51</v>
       </c>
       <c r="P32" t="b">
-        <f>IFERROR(MATCH(O32,data!$D$2:$D$37,)&gt;0,"非法音高，请调节八度偏移")</f>
+        <f>IFERROR(MATCH(O32,data!$D$3:$D$38,)&gt;0,"非法音高，请调节八度偏移")</f>
         <v>1</v>
       </c>
       <c r="R32" s="8">
@@ -4063,9 +5664,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DCBD8937-8BF0-48F5-BB25-4E67F4E6526E}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EC525C7D-0CAD-4C63-8999-757E6D0C0FA2}">
           <x14:formula1>
-            <xm:f>data!$A$2:$A$25</xm:f>
+            <xm:f>data!$A$3:$A$26</xm:f>
           </x14:formula1>
           <xm:sqref>B1</xm:sqref>
         </x14:dataValidation>
@@ -4075,2380 +5676,2421 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDB0C8B-6CCB-4F7A-8054-976853ECB6F9}">
-  <dimension ref="A1:K92"/>
+  <dimension ref="A1:L94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="8.08984375" customWidth="1"/>
-    <col min="5" max="9" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
         <v>41</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>165</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>166</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I3" t="s">
         <v>169</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D4" s="3">
         <v>-41</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>170</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F4" t="s">
         <v>171</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>49</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I4" t="s">
         <v>173</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D5" s="3">
         <v>42</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>175</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" t="s">
         <v>176</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>50</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I5" t="s">
         <v>179</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K5" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D6" s="3">
         <v>-42</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>180</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F6" t="s">
         <v>181</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>51</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I6" t="s">
         <v>183</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D7" s="3">
         <v>43</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>185</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
         <v>186</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>52</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I7" t="s">
         <v>189</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K7" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>6</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D8" s="3">
         <v>44</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>190</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" t="s">
         <v>191</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>53</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I8" t="s">
         <v>194</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K8" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>7</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D9" s="3">
         <v>-44</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>195</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>196</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>54</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I9" t="s">
         <v>198</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>8</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D10" s="3">
         <v>45</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>200</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" t="s">
         <v>201</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>55</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I10" t="s">
         <v>204</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K10" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>9</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D11" s="3">
         <v>-45</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
         <v>205</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>206</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>56</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I11" t="s">
         <v>208</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>10</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D12" s="3">
         <v>46</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
         <v>210</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F12" t="s">
         <v>211</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>57</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I12" t="s">
         <v>213</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K12" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>11</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D13" s="3">
         <v>-46</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>214</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>215</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>58</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I13" t="s">
         <v>217</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>12</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D14" s="3">
         <v>47</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>219</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F14" t="s">
         <v>220</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>59</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I14" t="s">
         <v>222</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K14" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>23</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
         <v>51</v>
       </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <v>60</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I15" t="s">
         <v>224</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J15" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>24</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>2</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D16" s="3">
         <v>-51</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>226</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F16" t="s">
         <v>227</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H15">
+      <c r="H16">
         <v>61</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I16" t="s">
         <v>228</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>229</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="D16" s="3">
-        <v>52</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16">
-        <v>62</v>
-      </c>
-      <c r="I16" t="s">
-        <v>231</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="K16" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" s="3">
-        <v>-52</v>
-      </c>
-      <c r="E17" t="s">
-        <v>233</v>
+        <v>52</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>234</v>
+        <v>28</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>235</v>
+        <v>3</v>
       </c>
       <c r="H17">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I17" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>237</v>
+        <v>232</v>
+      </c>
+      <c r="K17" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="3">
-        <v>53</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
+        <v>-52</v>
+      </c>
+      <c r="E18" t="s">
+        <v>233</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>234</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>1</v>
+        <v>235</v>
       </c>
       <c r="H18">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I18" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="K18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="3">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>241</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I19" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="K19" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" s="3">
-        <v>-54</v>
-      </c>
-      <c r="E20" t="s">
-        <v>245</v>
+        <v>54</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>246</v>
+        <v>31</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="H20">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I20" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
+      </c>
+      <c r="K20" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" s="3">
-        <v>55</v>
-      </c>
-      <c r="E21">
-        <v>5</v>
+        <v>-54</v>
+      </c>
+      <c r="E21" t="s">
+        <v>245</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>246</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>2</v>
+        <v>247</v>
       </c>
       <c r="H21">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I21" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="K21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" s="3">
-        <v>-55</v>
-      </c>
-      <c r="E22" t="s">
-        <v>253</v>
+        <v>55</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>254</v>
+        <v>33</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>255</v>
+        <v>2</v>
       </c>
       <c r="H22">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I22" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
+      </c>
+      <c r="K22" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" s="3">
-        <v>56</v>
-      </c>
-      <c r="E23">
-        <v>6</v>
+        <v>-55</v>
+      </c>
+      <c r="E23" t="s">
+        <v>253</v>
       </c>
       <c r="F23" t="s">
-        <v>23</v>
+        <v>254</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="H23">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I23" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="K23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D24" s="3">
-        <v>-56</v>
-      </c>
-      <c r="E24" t="s">
-        <v>261</v>
+        <v>56</v>
+      </c>
+      <c r="E24">
+        <v>6</v>
       </c>
       <c r="F24" t="s">
-        <v>262</v>
+        <v>23</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>263</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I24" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
+      </c>
+      <c r="K24" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>11</v>
+      </c>
+      <c r="D25" s="3">
+        <v>-56</v>
+      </c>
+      <c r="E25" t="s">
+        <v>261</v>
+      </c>
+      <c r="F25" t="s">
+        <v>262</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="H25">
+        <v>70</v>
+      </c>
+      <c r="I25" t="s">
+        <v>264</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>34</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>12</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D26" s="3">
         <v>57</v>
       </c>
-      <c r="E25">
+      <c r="E26">
         <v>7</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F26" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="H25">
+      <c r="H26">
         <v>71</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I26" t="s">
         <v>268</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="J26" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K26" t="s">
         <v>267</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D26" s="3">
-        <v>61</v>
-      </c>
-      <c r="E26" t="s">
-        <v>270</v>
-      </c>
-      <c r="F26" t="s">
-        <v>271</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="H26">
-        <v>72</v>
-      </c>
-      <c r="I26" t="s">
-        <v>274</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="K26" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D27" s="3">
-        <v>-61</v>
+        <v>61</v>
       </c>
       <c r="E27" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F27" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="H27">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I27" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
+      </c>
+      <c r="K27" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D28" s="3">
-        <v>62</v>
+        <v>-61</v>
       </c>
       <c r="E28" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F28" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="H28">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I28" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="K28" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D29" s="3">
-        <v>-62</v>
+        <v>62</v>
       </c>
       <c r="E29" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F29" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H29">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I29" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>291</v>
+        <v>286</v>
+      </c>
+      <c r="K29" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D30" s="3">
-        <v>63</v>
+        <v>-62</v>
       </c>
       <c r="E30" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F30" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="H30">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I30" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="K30" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D31" s="3">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E31" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F31" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H31">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I31" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="K31" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D32" s="3">
-        <v>-64</v>
+        <v>64</v>
       </c>
       <c r="E32" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F32" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="H32">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I32" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>308</v>
+        <v>303</v>
+      </c>
+      <c r="K32" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="33" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D33" s="3">
-        <v>65</v>
+        <v>-64</v>
       </c>
       <c r="E33" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F33" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="H33">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I33" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="K33" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="34" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D34" s="3">
-        <v>-65</v>
+        <v>65</v>
       </c>
       <c r="E34" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F34" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="H34">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I34" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
+      </c>
+      <c r="K34" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="35" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D35" s="3">
-        <v>66</v>
+        <v>-65</v>
       </c>
       <c r="E35" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="F35" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H35">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I35" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="K35" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="36" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D36" s="3">
-        <v>-66</v>
+        <v>66</v>
       </c>
       <c r="E36" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="F36" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="H36">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I36" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>330</v>
+        <v>325</v>
+      </c>
+      <c r="K36" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D37" s="3">
+        <v>-66</v>
+      </c>
+      <c r="E37" t="s">
+        <v>326</v>
+      </c>
+      <c r="F37" t="s">
+        <v>327</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="H37">
+        <v>82</v>
+      </c>
+      <c r="I37" t="s">
+        <v>329</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D38" s="3">
         <v>67</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E38" t="s">
         <v>331</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F38" t="s">
         <v>332</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G38" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="H37">
+      <c r="H38">
         <v>83</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I38" t="s">
         <v>335</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="J38" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K38" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D39" s="1" t="s">
+    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D40" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D41" s="1" t="s">
         <v>482</v>
-      </c>
-    </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D40">
-        <v>16</v>
-      </c>
-      <c r="E40" t="s">
-        <v>36</v>
-      </c>
-      <c r="F40" t="s">
-        <v>37</v>
-      </c>
-      <c r="G40" t="s">
-        <v>38</v>
-      </c>
-      <c r="H40">
-        <v>21</v>
-      </c>
-      <c r="I40" t="s">
-        <v>40</v>
-      </c>
-      <c r="J40" t="s">
-        <v>41</v>
-      </c>
-      <c r="K40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D41">
-        <v>-16</v>
-      </c>
-      <c r="E41" t="s">
-        <v>42</v>
-      </c>
-      <c r="F41" t="s">
-        <v>43</v>
-      </c>
-      <c r="G41" t="s">
-        <v>44</v>
-      </c>
-      <c r="H41">
-        <v>22</v>
-      </c>
-      <c r="I41" t="s">
-        <v>45</v>
-      </c>
-      <c r="J41" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="42" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D42">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E42" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F42" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G42" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H42">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I42" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J42" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="K42" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D43">
-        <v>21</v>
+        <v>-16</v>
       </c>
       <c r="E43" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H43">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I43" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J43" t="s">
-        <v>57</v>
-      </c>
-      <c r="K43" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D44">
-        <v>-21</v>
+        <v>17</v>
       </c>
       <c r="E44" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="F44" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="G44" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H44">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I44" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="J44" t="s">
-        <v>61</v>
+        <v>52</v>
+      </c>
+      <c r="K44" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D45">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E45" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F45" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G45" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H45">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I45" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="J45" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="K45" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D46">
-        <v>-22</v>
+        <v>-21</v>
       </c>
       <c r="E46" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F46" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G46" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H46">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I46" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="J46" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D47">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E47" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F47" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G47" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="H47">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I47" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="J47" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="K47" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D48">
-        <v>24</v>
+        <v>-22</v>
       </c>
       <c r="E48" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F48" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G48" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H48">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I48" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J48" t="s">
-        <v>80</v>
-      </c>
-      <c r="K48" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D49">
-        <v>-24</v>
+        <v>23</v>
       </c>
       <c r="E49" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F49" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G49" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H49">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I49" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J49" t="s">
-        <v>84</v>
+        <v>75</v>
+      </c>
+      <c r="K49" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D50">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E50" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F50" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G50" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H50">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I50" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J50" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K50" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D51">
-        <v>-25</v>
+        <v>-24</v>
       </c>
       <c r="E51" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F51" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="G51" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H51">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I51" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="J51" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D52">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E52" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F52" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="G52" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H52">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I52" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="J52" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="K52" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D53">
-        <v>-26</v>
+        <v>-25</v>
       </c>
       <c r="E53" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F53" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G53" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="H53">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I53" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="J53" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D54">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E54" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F54" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="G54" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H54">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I54" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="J54" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K54" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D55">
-        <v>31</v>
+        <v>-26</v>
       </c>
       <c r="E55" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="F55" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G55" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="H55">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I55" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="J55" t="s">
-        <v>12</v>
-      </c>
-      <c r="K55" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D56">
-        <v>-31</v>
+        <v>27</v>
       </c>
       <c r="E56" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F56" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="G56" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="H56">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I56" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="J56" t="s">
-        <v>117</v>
+        <v>107</v>
+      </c>
+      <c r="K56" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D57">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E57" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="F57" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G57" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="H57">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I57" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="J57" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K57" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D58">
-        <v>-32</v>
+        <v>-31</v>
       </c>
       <c r="E58" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F58" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="G58" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="H58">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I58" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="J58" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D59">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E59" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F59" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="G59" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="H59">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I59" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="J59" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K59" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D60">
-        <v>34</v>
+        <v>-32</v>
       </c>
       <c r="E60" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="F60" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="G60" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="H60">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I60" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="J60" t="s">
-        <v>17</v>
-      </c>
-      <c r="K60" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D61">
-        <v>-34</v>
+        <v>33</v>
       </c>
       <c r="E61" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="F61" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="G61" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="H61">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I61" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="J61" t="s">
-        <v>142</v>
+        <v>16</v>
+      </c>
+      <c r="K61" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D62">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E62" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="F62" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G62" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="H62">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I62" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="J62" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K62" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D63">
-        <v>-35</v>
+        <v>-34</v>
       </c>
       <c r="E63" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="F63" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="G63" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="H63">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I63" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="J63" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D64">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E64" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F64" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="G64" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="H64">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I64" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="J64" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K64" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="65" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D65">
-        <v>-36</v>
+        <v>-35</v>
       </c>
       <c r="E65" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F65" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="G65" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="H65">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I65" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
       <c r="J65" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D66">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E66" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F66" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="G66" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="H66">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I66" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J66" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K66" t="s">
-        <v>164</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="67" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>-36</v>
+      </c>
+      <c r="E67" t="s">
+        <v>157</v>
+      </c>
+      <c r="F67" t="s">
+        <v>158</v>
+      </c>
+      <c r="G67" t="s">
+        <v>159</v>
+      </c>
+      <c r="H67">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>46</v>
+      </c>
+      <c r="J67" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="68" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D68">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="E68" t="s">
-        <v>337</v>
+        <v>161</v>
       </c>
       <c r="F68" t="s">
-        <v>338</v>
+        <v>162</v>
       </c>
       <c r="G68" t="s">
-        <v>339</v>
+        <v>163</v>
       </c>
       <c r="H68">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>341</v>
+        <v>52</v>
       </c>
       <c r="J68" t="s">
-        <v>342</v>
+        <v>22</v>
       </c>
       <c r="K68" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="69" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D69">
-        <v>-71</v>
-      </c>
-      <c r="E69" t="s">
-        <v>343</v>
-      </c>
-      <c r="F69" t="s">
-        <v>344</v>
-      </c>
-      <c r="G69" t="s">
-        <v>345</v>
-      </c>
-      <c r="H69">
-        <v>85</v>
-      </c>
-      <c r="I69" t="s">
-        <v>346</v>
-      </c>
-      <c r="J69" t="s">
-        <v>347</v>
+        <v>164</v>
       </c>
     </row>
     <row r="70" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D70">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E70" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="F70" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="G70" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="H70">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I70" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="J70" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="K70" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
     </row>
     <row r="71" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D71">
-        <v>-72</v>
+        <v>-71</v>
       </c>
       <c r="E71" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="F71" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="G71" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="H71">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I71" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="J71" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
     </row>
     <row r="72" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D72">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E72" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="F72" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="G72" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="H72">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I72" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="J72" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="K72" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
     </row>
     <row r="73" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D73">
-        <v>74</v>
+        <v>-72</v>
       </c>
       <c r="E73" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="F73" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="G73" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="H73">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I73" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="J73" t="s">
-        <v>370</v>
-      </c>
-      <c r="K73" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="74" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D74">
-        <v>-74</v>
+        <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="F74" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="G74" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="H74">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I74" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="J74" t="s">
-        <v>375</v>
+        <v>364</v>
+      </c>
+      <c r="K74" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="75" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D75">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="F75" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="G75" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="H75">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I75" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="J75" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="K75" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
     </row>
     <row r="76" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D76">
-        <v>-75</v>
+        <v>-74</v>
       </c>
       <c r="E76" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="F76" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="G76" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="H76">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I76" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="J76" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
     </row>
     <row r="77" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D77">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E77" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="F77" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="G77" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="H77">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I77" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="J77" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="K77" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
     </row>
     <row r="78" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D78">
-        <v>-76</v>
+        <v>-75</v>
       </c>
       <c r="E78" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="F78" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="G78" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="H78">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I78" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="J78" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
     </row>
     <row r="79" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D79">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E79" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="F79" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="G79" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="H79">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I79" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="J79" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="K79" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
     </row>
     <row r="80" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D80">
-        <v>81</v>
+        <v>-76</v>
       </c>
       <c r="E80" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="F80" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="G80" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="H80">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I80" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="J80" t="s">
-        <v>409</v>
-      </c>
-      <c r="K80" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
     </row>
     <row r="81" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D81">
-        <v>-81</v>
+        <v>77</v>
       </c>
       <c r="E81" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="F81" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="G81" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="H81">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I81" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="J81" t="s">
-        <v>414</v>
+        <v>403</v>
+      </c>
+      <c r="K81" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="82" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D82">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="F82" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="G82" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="H82">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I82" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="J82" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="K82" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
     </row>
     <row r="83" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D83">
-        <v>-82</v>
+        <v>-81</v>
       </c>
       <c r="E83" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="F83" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="G83" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="H83">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I83" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="J83" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
     </row>
     <row r="84" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D84">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E84" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="F84" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="G84" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="H84">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I84" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="J84" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="K84" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
     </row>
     <row r="85" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D85">
-        <v>84</v>
+        <v>-82</v>
       </c>
       <c r="E85" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="F85" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="G85" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="H85">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I85" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="J85" t="s">
-        <v>437</v>
-      </c>
-      <c r="K85" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
     </row>
     <row r="86" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D86">
-        <v>-84</v>
+        <v>83</v>
       </c>
       <c r="E86" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="F86" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="G86" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="H86">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I86" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="J86" t="s">
-        <v>442</v>
+        <v>431</v>
+      </c>
+      <c r="K86" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="87" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D87">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E87" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="F87" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="G87" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="H87">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I87" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="J87" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="K87" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
     </row>
     <row r="88" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D88">
-        <v>-85</v>
+        <v>-84</v>
       </c>
       <c r="E88" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="F88" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="G88" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="H88">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I88" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="J88" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="89" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D89">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E89" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="F89" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="G89" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="H89">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I89" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="J89" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="K89" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
     </row>
     <row r="90" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D90">
-        <v>-86</v>
+        <v>-85</v>
       </c>
       <c r="E90" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="F90" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="G90" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="H90">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I90" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="J90" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
     </row>
     <row r="91" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D91">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E91" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="F91" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="G91" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="H91">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I91" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="J91" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="K91" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
     </row>
     <row r="92" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D92">
+        <v>-86</v>
+      </c>
+      <c r="E92" t="s">
+        <v>460</v>
+      </c>
+      <c r="F92" t="s">
+        <v>461</v>
+      </c>
+      <c r="G92" t="s">
+        <v>462</v>
+      </c>
+      <c r="H92">
+        <v>106</v>
+      </c>
+      <c r="I92" t="s">
+        <v>463</v>
+      </c>
+      <c r="J92" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="93" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D93">
+        <v>87</v>
+      </c>
+      <c r="E93" t="s">
+        <v>465</v>
+      </c>
+      <c r="F93" t="s">
+        <v>466</v>
+      </c>
+      <c r="G93" t="s">
+        <v>467</v>
+      </c>
+      <c r="H93">
+        <v>107</v>
+      </c>
+      <c r="I93" t="s">
+        <v>469</v>
+      </c>
+      <c r="J93" t="s">
+        <v>470</v>
+      </c>
+      <c r="K93" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="94" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D94">
         <v>91</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E94" t="s">
         <v>471</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F94" t="s">
         <v>472</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G94" t="s">
         <v>473</v>
       </c>
-      <c r="H92">
+      <c r="H94">
         <v>108</v>
       </c>
-      <c r="I92" t="s">
+      <c r="I94" t="s">
         <v>475</v>
       </c>
-      <c r="J92" t="s">
+      <c r="J94" t="s">
         <v>476</v>
       </c>
-      <c r="K92" t="s">
+      <c r="K94" t="s">
         <v>474</v>
       </c>
     </row>
